--- a/Others_Solutions/Решения из книги Евич/Вариант 5/Задание 18/18.xlsx
+++ b/Others_Solutions/Решения из книги Евич/Вариант 5/Задание 18/18.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hem12\Documents\Документы Миша\Школьные предметы\ЕГЭ информатика\Solutions\PrepareForEGE_MishaPolykovsky\Others_Solutions\Решения из книги Евич\Вариант 5\Задание 18\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD5A53C-15E4-43B8-A8DE-B8BFB9A61403}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="45" windowWidth="16260" windowHeight="5835"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -26,8 +32,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -40,6 +54,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -50,23 +69,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -115,7 +141,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -147,9 +173,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -181,6 +225,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -356,16 +418,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73"/>
+      <selection activeCell="U63" sqref="U63:U64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>32</v>
       </c>
@@ -460,7 +522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>48</v>
       </c>
@@ -555,7 +617,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>30</v>
       </c>
@@ -650,7 +712,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11</v>
       </c>
@@ -745,7 +807,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15</v>
       </c>
@@ -840,7 +902,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -935,7 +997,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>16</v>
       </c>
@@ -1030,7 +1092,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>37</v>
       </c>
@@ -1125,7 +1187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16</v>
       </c>
@@ -1220,7 +1282,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>30</v>
       </c>
@@ -1315,7 +1377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>43</v>
       </c>
@@ -1410,7 +1472,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1505,7 +1567,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>14</v>
       </c>
@@ -1600,7 +1662,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
@@ -1695,7 +1757,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>36</v>
       </c>
@@ -1790,7 +1852,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>36</v>
       </c>
@@ -1885,7 +1947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>26</v>
       </c>
@@ -1980,7 +2042,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>44</v>
       </c>
@@ -2075,7 +2137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -2170,7 +2232,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
@@ -2265,7 +2327,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>39</v>
       </c>
@@ -2360,7 +2422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>43</v>
       </c>
@@ -2455,7 +2517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>41</v>
       </c>
@@ -2550,7 +2612,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>47</v>
       </c>
@@ -2645,7 +2707,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2740,7 +2802,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14</v>
       </c>
@@ -2835,7 +2897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>40</v>
       </c>
@@ -2930,7 +2992,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3025,7 +3087,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -3120,7 +3182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>26</v>
       </c>
@@ -3215,7 +3277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>34</v>
       </c>
@@ -3310,1030 +3372,3913 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:31">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="2"/>
-      <c r="AD35" s="2"/>
-      <c r="AE35" s="2"/>
-    </row>
-    <row r="36" spans="1:31">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="2"/>
-      <c r="AE36" s="2"/>
-    </row>
-    <row r="37" spans="1:31">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="2"/>
-      <c r="AD37" s="2"/>
-      <c r="AE37" s="2"/>
-    </row>
-    <row r="38" spans="1:31">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="2"/>
-    </row>
-    <row r="39" spans="1:31">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-      <c r="AB39" s="3"/>
-      <c r="AC39" s="3"/>
-      <c r="AD39" s="3"/>
-      <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="1:31">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AC40" s="3"/>
-      <c r="AD40" s="3"/>
-      <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="1:31">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AC41" s="3"/>
-      <c r="AD41" s="3"/>
-      <c r="AE41" s="3"/>
-    </row>
-    <row r="42" spans="1:31">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="3"/>
-      <c r="AC42" s="3"/>
-      <c r="AD42" s="3"/>
-      <c r="AE42" s="3"/>
-    </row>
-    <row r="43" spans="1:31">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
-      <c r="AE43" s="3"/>
-    </row>
-    <row r="44" spans="1:31">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="3"/>
-      <c r="AC44" s="3"/>
-      <c r="AD44" s="3"/>
-      <c r="AE44" s="3"/>
-    </row>
-    <row r="45" spans="1:31">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
-      <c r="AA45" s="3"/>
-      <c r="AB45" s="3"/>
-      <c r="AC45" s="3"/>
-      <c r="AD45" s="3"/>
-      <c r="AE45" s="3"/>
-    </row>
-    <row r="46" spans="1:31">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-      <c r="AA46" s="3"/>
-      <c r="AB46" s="3"/>
-      <c r="AC46" s="3"/>
-      <c r="AD46" s="3"/>
-      <c r="AE46" s="3"/>
-    </row>
-    <row r="47" spans="1:31">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="3"/>
-      <c r="AB47" s="3"/>
-      <c r="AC47" s="3"/>
-      <c r="AD47" s="3"/>
-      <c r="AE47" s="3"/>
-    </row>
-    <row r="48" spans="1:31">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="3"/>
-      <c r="AC48" s="3"/>
-      <c r="AD48" s="3"/>
-      <c r="AE48" s="3"/>
-    </row>
-    <row r="49" spans="1:31">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="3"/>
-      <c r="AC49" s="3"/>
-      <c r="AD49" s="3"/>
-      <c r="AE49" s="3"/>
-    </row>
-    <row r="50" spans="1:31">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
-      <c r="AA50" s="3"/>
-      <c r="AB50" s="3"/>
-      <c r="AC50" s="3"/>
-      <c r="AD50" s="3"/>
-      <c r="AE50" s="3"/>
-    </row>
-    <row r="51" spans="1:31">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
-      <c r="V51" s="3"/>
-      <c r="W51" s="3"/>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
-      <c r="AA51" s="3"/>
-      <c r="AB51" s="3"/>
-      <c r="AC51" s="3"/>
-      <c r="AD51" s="3"/>
-      <c r="AE51" s="3"/>
-    </row>
-    <row r="52" spans="1:31">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
-      <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
-      <c r="AA52" s="3"/>
-      <c r="AB52" s="3"/>
-      <c r="AC52" s="3"/>
-      <c r="AD52" s="3"/>
-      <c r="AE52" s="3"/>
-    </row>
-    <row r="53" spans="1:31">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
-      <c r="AA53" s="3"/>
-      <c r="AB53" s="3"/>
-      <c r="AC53" s="3"/>
-      <c r="AD53" s="3"/>
-      <c r="AE53" s="3"/>
-    </row>
-    <row r="54" spans="1:31">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-      <c r="AA54" s="3"/>
-      <c r="AB54" s="3"/>
-      <c r="AC54" s="3"/>
-      <c r="AD54" s="3"/>
-      <c r="AE54" s="3"/>
-    </row>
-    <row r="55" spans="1:31">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
-      <c r="AA55" s="3"/>
-      <c r="AB55" s="3"/>
-      <c r="AC55" s="3"/>
-      <c r="AD55" s="3"/>
-      <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="1:31">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-      <c r="AA56" s="3"/>
-      <c r="AB56" s="3"/>
-      <c r="AC56" s="3"/>
-      <c r="AD56" s="3"/>
-      <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="1:31">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
-      <c r="V57" s="3"/>
-      <c r="W57" s="3"/>
-      <c r="X57" s="3"/>
-      <c r="Y57" s="3"/>
-      <c r="Z57" s="3"/>
-      <c r="AA57" s="3"/>
-      <c r="AB57" s="3"/>
-      <c r="AC57" s="3"/>
-      <c r="AD57" s="3"/>
-      <c r="AE57" s="3"/>
-    </row>
-    <row r="58" spans="1:31">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
-      <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
-      <c r="AA58" s="3"/>
-      <c r="AB58" s="3"/>
-      <c r="AC58" s="3"/>
-      <c r="AD58" s="3"/>
-      <c r="AE58" s="3"/>
-    </row>
-    <row r="59" spans="1:31">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
-      <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="3"/>
-      <c r="AA59" s="3"/>
-      <c r="AB59" s="3"/>
-      <c r="AC59" s="3"/>
-      <c r="AD59" s="3"/>
-      <c r="AE59" s="3"/>
-    </row>
-    <row r="60" spans="1:31">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
-      <c r="Z60" s="3"/>
-      <c r="AA60" s="3"/>
-      <c r="AB60" s="3"/>
-      <c r="AC60" s="3"/>
-      <c r="AD60" s="3"/>
-      <c r="AE60" s="3"/>
-    </row>
-    <row r="61" spans="1:31">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
-      <c r="W61" s="3"/>
-      <c r="X61" s="3"/>
-      <c r="Y61" s="3"/>
-      <c r="Z61" s="3"/>
-      <c r="AA61" s="3"/>
-      <c r="AB61" s="3"/>
-      <c r="AC61" s="3"/>
-      <c r="AD61" s="3"/>
-      <c r="AE61" s="3"/>
-    </row>
-    <row r="62" spans="1:31">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
-      <c r="X62" s="3"/>
-      <c r="Y62" s="3"/>
-      <c r="Z62" s="3"/>
-      <c r="AA62" s="3"/>
-      <c r="AB62" s="3"/>
-      <c r="AC62" s="3"/>
-      <c r="AD62" s="3"/>
-      <c r="AE62" s="3"/>
-    </row>
-    <row r="63" spans="1:31">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
-      <c r="W63" s="3"/>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
-      <c r="AA63" s="3"/>
-      <c r="AB63" s="3"/>
-      <c r="AC63" s="3"/>
-      <c r="AD63" s="3"/>
-      <c r="AE63" s="3"/>
-    </row>
-    <row r="64" spans="1:31">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
-      <c r="W64" s="3"/>
-      <c r="X64" s="3"/>
-      <c r="Y64" s="3"/>
-      <c r="Z64" s="3"/>
-      <c r="AA64" s="3"/>
-      <c r="AB64" s="3"/>
-      <c r="AC64" s="3"/>
-      <c r="AD64" s="3"/>
-      <c r="AE64" s="3"/>
-    </row>
-    <row r="65" spans="1:31">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
-      <c r="V65" s="3"/>
-      <c r="W65" s="3"/>
-      <c r="X65" s="3"/>
-      <c r="Y65" s="3"/>
-      <c r="Z65" s="3"/>
-      <c r="AA65" s="3"/>
-      <c r="AB65" s="3"/>
-      <c r="AC65" s="3"/>
-      <c r="AD65" s="3"/>
-      <c r="AE65" s="3"/>
-    </row>
-    <row r="66" spans="1:31">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <f t="shared" ref="A35:A49" si="0">MAX(B35,A36) +A1</f>
+        <v>1118</v>
+      </c>
+      <c r="B35" s="3">
+        <f t="shared" ref="B35:B49" si="1">MAX(C35,B36) +B1</f>
+        <v>1046</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" ref="C35:C49" si="2">MAX(D35,C36) +C1</f>
+        <v>1023</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" ref="D35:D49" si="3">MAX(E35,D36) +D1</f>
+        <v>995</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" ref="E35:E49" si="4">MAX(F35,E36) +E1</f>
+        <v>951</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" ref="F35:F49" si="5">MAX(G35,F36) +F1</f>
+        <v>910</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" ref="G35:G49" si="6">MAX(H35,G36) +G1</f>
+        <v>887</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" ref="H35:H49" si="7">MAX(I35,H36) +H1</f>
+        <v>860</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" ref="I35:I49" si="8">MAX(J35,I36) +I1</f>
+        <v>812</v>
+      </c>
+      <c r="J35" s="3">
+        <f t="shared" ref="J35:J49" si="9">MAX(K35,J36) +J1</f>
+        <v>749</v>
+      </c>
+      <c r="K35" s="3">
+        <f t="shared" ref="K35:K49" si="10">MAX(L35,K36) +K1</f>
+        <v>700</v>
+      </c>
+      <c r="L35" s="3">
+        <f t="shared" ref="L35:L49" si="11">MAX(M35,L36) +L1</f>
+        <v>648</v>
+      </c>
+      <c r="M35" s="3">
+        <f t="shared" ref="M35:M49" si="12">MAX(N35,M36) +M1</f>
+        <v>637</v>
+      </c>
+      <c r="N35" s="3">
+        <f t="shared" ref="N35:N49" si="13">MAX(O35,N36) +N1</f>
+        <v>580</v>
+      </c>
+      <c r="O35" s="3">
+        <f t="shared" ref="O35:O48" si="14">MAX(P35,O36) +O1</f>
+        <v>552</v>
+      </c>
+      <c r="P35" s="3">
+        <f t="shared" ref="P35:P48" si="15">P36+P1</f>
+        <v>400</v>
+      </c>
+      <c r="Q35" s="3">
+        <f t="shared" ref="Q35:Q48" si="16">MAX(P35,Q36)+Q1</f>
+        <v>522</v>
+      </c>
+      <c r="R35" s="3">
+        <f t="shared" ref="R35:R48" si="17">MAX(Q35,R36)+R1</f>
+        <v>559</v>
+      </c>
+      <c r="S35" s="3">
+        <f t="shared" ref="S35:S48" si="18">MAX(R35,S36)+S1</f>
+        <v>561</v>
+      </c>
+      <c r="T35" s="3">
+        <f t="shared" ref="T35:T48" si="19">MAX(S35,T36)+T1</f>
+        <v>579</v>
+      </c>
+      <c r="U35" s="3">
+        <f t="shared" ref="U35:U48" si="20">MAX(T35,U36)+U1</f>
+        <v>655</v>
+      </c>
+      <c r="V35" s="3">
+        <f t="shared" ref="V35:V48" si="21">MAX(U35,V36)+V1</f>
+        <v>664</v>
+      </c>
+      <c r="W35" s="3">
+        <f t="shared" ref="W35:W48" si="22">MAX(V35,W36)+W1</f>
+        <v>726</v>
+      </c>
+      <c r="X35" s="3">
+        <f t="shared" ref="X35:X48" si="23">MAX(W35,X36)+X1</f>
+        <v>735</v>
+      </c>
+      <c r="Y35" s="3">
+        <f t="shared" ref="Y35:Y48" si="24">MAX(X35,Y36)+Y1</f>
+        <v>771</v>
+      </c>
+      <c r="Z35" s="3">
+        <f t="shared" ref="Z35:Z48" si="25">MAX(Y35,Z36)+Z1</f>
+        <v>917</v>
+      </c>
+      <c r="AA35" s="3">
+        <f t="shared" ref="AA35:AA48" si="26">MAX(Z35,AA36)+AA1</f>
+        <v>947</v>
+      </c>
+      <c r="AB35" s="3">
+        <f t="shared" ref="AB35:AB48" si="27">MAX(AA35,AB36)+AB1</f>
+        <v>996</v>
+      </c>
+      <c r="AC35" s="3">
+        <f t="shared" ref="AC35:AC48" si="28">MAX(AB35,AC36)+AC1</f>
+        <v>1036</v>
+      </c>
+      <c r="AD35" s="3">
+        <f t="shared" ref="AD35:AD48" si="29">MAX(AC35,AD36)+AD1</f>
+        <v>1079</v>
+      </c>
+      <c r="AE35" s="3">
+        <f t="shared" ref="AE35:AE48" si="30">MAX(AD35,AE36)+AE1</f>
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <f t="shared" si="0"/>
+        <v>1086</v>
+      </c>
+      <c r="B36" s="3">
+        <f t="shared" si="1"/>
+        <v>1038</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="2"/>
+        <v>989</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="3"/>
+        <v>889</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="4"/>
+        <v>868</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="5"/>
+        <v>830</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="6"/>
+        <v>828</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="7"/>
+        <v>806</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" si="8"/>
+        <v>790</v>
+      </c>
+      <c r="J36" s="3">
+        <f t="shared" si="9"/>
+        <v>716</v>
+      </c>
+      <c r="K36" s="3">
+        <f t="shared" si="10"/>
+        <v>662</v>
+      </c>
+      <c r="L36" s="3">
+        <f t="shared" si="11"/>
+        <v>628</v>
+      </c>
+      <c r="M36" s="3">
+        <f t="shared" si="12"/>
+        <v>608</v>
+      </c>
+      <c r="N36" s="3">
+        <f t="shared" si="13"/>
+        <v>549</v>
+      </c>
+      <c r="O36" s="3">
+        <f t="shared" si="14"/>
+        <v>539</v>
+      </c>
+      <c r="P36" s="3">
+        <f t="shared" si="15"/>
+        <v>354</v>
+      </c>
+      <c r="Q36" s="3">
+        <f t="shared" si="16"/>
+        <v>498</v>
+      </c>
+      <c r="R36" s="3">
+        <f t="shared" si="17"/>
+        <v>532</v>
+      </c>
+      <c r="S36" s="3">
+        <f t="shared" si="18"/>
+        <v>558</v>
+      </c>
+      <c r="T36" s="3">
+        <f t="shared" si="19"/>
+        <v>573</v>
+      </c>
+      <c r="U36" s="3">
+        <f t="shared" si="20"/>
+        <v>618</v>
+      </c>
+      <c r="V36" s="3">
+        <f t="shared" si="21"/>
+        <v>648</v>
+      </c>
+      <c r="W36" s="3">
+        <f t="shared" si="22"/>
+        <v>687</v>
+      </c>
+      <c r="X36" s="3">
+        <f t="shared" si="23"/>
+        <v>723</v>
+      </c>
+      <c r="Y36" s="3">
+        <f t="shared" si="24"/>
+        <v>770</v>
+      </c>
+      <c r="Z36" s="3">
+        <f t="shared" si="25"/>
+        <v>886</v>
+      </c>
+      <c r="AA36" s="3">
+        <f t="shared" si="26"/>
+        <v>909</v>
+      </c>
+      <c r="AB36" s="3">
+        <f t="shared" si="27"/>
+        <v>968</v>
+      </c>
+      <c r="AC36" s="3">
+        <f t="shared" si="28"/>
+        <v>996</v>
+      </c>
+      <c r="AD36" s="3">
+        <f t="shared" si="29"/>
+        <v>1013</v>
+      </c>
+      <c r="AE36" s="3">
+        <f t="shared" si="30"/>
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f t="shared" si="0"/>
+        <v>1035</v>
+      </c>
+      <c r="B37" s="3">
+        <f t="shared" si="1"/>
+        <v>1005</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" si="2"/>
+        <v>969</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="3"/>
+        <v>868</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" si="4"/>
+        <v>846</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="5"/>
+        <v>817</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="6"/>
+        <v>807</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" si="7"/>
+        <v>786</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="8"/>
+        <v>744</v>
+      </c>
+      <c r="J37" s="3">
+        <f t="shared" si="9"/>
+        <v>710</v>
+      </c>
+      <c r="K37" s="3">
+        <f t="shared" si="10"/>
+        <v>620</v>
+      </c>
+      <c r="L37" s="3">
+        <f t="shared" si="11"/>
+        <v>614</v>
+      </c>
+      <c r="M37" s="3">
+        <f t="shared" si="12"/>
+        <v>575</v>
+      </c>
+      <c r="N37" s="3">
+        <f t="shared" si="13"/>
+        <v>532</v>
+      </c>
+      <c r="O37" s="3">
+        <f t="shared" si="14"/>
+        <v>506</v>
+      </c>
+      <c r="P37" s="3">
+        <f t="shared" si="15"/>
+        <v>319</v>
+      </c>
+      <c r="Q37" s="3">
+        <f t="shared" si="16"/>
+        <v>465</v>
+      </c>
+      <c r="R37" s="3">
+        <f t="shared" si="17"/>
+        <v>472</v>
+      </c>
+      <c r="S37" s="3">
+        <f t="shared" si="18"/>
+        <v>484</v>
+      </c>
+      <c r="T37" s="3">
+        <f t="shared" si="19"/>
+        <v>510</v>
+      </c>
+      <c r="U37" s="3">
+        <f t="shared" si="20"/>
+        <v>559</v>
+      </c>
+      <c r="V37" s="3">
+        <f t="shared" si="21"/>
+        <v>597</v>
+      </c>
+      <c r="W37" s="3">
+        <f t="shared" si="22"/>
+        <v>668</v>
+      </c>
+      <c r="X37" s="3">
+        <f t="shared" si="23"/>
+        <v>696</v>
+      </c>
+      <c r="Y37" s="3">
+        <f t="shared" si="24"/>
+        <v>746</v>
+      </c>
+      <c r="Z37" s="3">
+        <f t="shared" si="25"/>
+        <v>855</v>
+      </c>
+      <c r="AA37" s="3">
+        <f t="shared" si="26"/>
+        <v>898</v>
+      </c>
+      <c r="AB37" s="3">
+        <f t="shared" si="27"/>
+        <v>925</v>
+      </c>
+      <c r="AC37" s="3">
+        <f t="shared" si="28"/>
+        <v>949</v>
+      </c>
+      <c r="AD37" s="3">
+        <f t="shared" si="29"/>
+        <v>964</v>
+      </c>
+      <c r="AE37" s="3">
+        <f t="shared" si="30"/>
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f t="shared" si="0"/>
+        <v>973</v>
+      </c>
+      <c r="B38" s="3">
+        <f t="shared" si="1"/>
+        <v>962</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" si="2"/>
+        <v>928</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="3"/>
+        <v>827</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" si="4"/>
+        <v>824</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="5"/>
+        <v>812</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="6"/>
+        <v>756</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" si="7"/>
+        <v>745</v>
+      </c>
+      <c r="I38" s="3">
+        <f t="shared" si="8"/>
+        <v>691</v>
+      </c>
+      <c r="J38" s="3">
+        <f t="shared" si="9"/>
+        <v>681</v>
+      </c>
+      <c r="K38" s="3">
+        <f t="shared" si="10"/>
+        <v>598</v>
+      </c>
+      <c r="L38" s="3">
+        <f t="shared" si="11"/>
+        <v>573</v>
+      </c>
+      <c r="M38" s="3">
+        <f t="shared" si="12"/>
+        <v>530</v>
+      </c>
+      <c r="N38" s="3">
+        <f t="shared" si="13"/>
+        <v>519</v>
+      </c>
+      <c r="O38" s="3">
+        <f t="shared" si="14"/>
+        <v>493</v>
+      </c>
+      <c r="P38" s="3">
+        <f t="shared" si="15"/>
+        <v>318</v>
+      </c>
+      <c r="Q38" s="3">
+        <f t="shared" si="16"/>
+        <v>418</v>
+      </c>
+      <c r="R38" s="3">
+        <f t="shared" si="17"/>
+        <v>438</v>
+      </c>
+      <c r="S38" s="3">
+        <f t="shared" si="18"/>
+        <v>464</v>
+      </c>
+      <c r="T38" s="3">
+        <f t="shared" si="19"/>
+        <v>507</v>
+      </c>
+      <c r="U38" s="3">
+        <f t="shared" si="20"/>
+        <v>528</v>
+      </c>
+      <c r="V38" s="3">
+        <f t="shared" si="21"/>
+        <v>535</v>
+      </c>
+      <c r="W38" s="3">
+        <f t="shared" si="22"/>
+        <v>644</v>
+      </c>
+      <c r="X38" s="3">
+        <f t="shared" si="23"/>
+        <v>693</v>
+      </c>
+      <c r="Y38" s="3">
+        <f t="shared" si="24"/>
+        <v>730</v>
+      </c>
+      <c r="Z38" s="3">
+        <f t="shared" si="25"/>
+        <v>814</v>
+      </c>
+      <c r="AA38" s="3">
+        <f t="shared" si="26"/>
+        <v>825</v>
+      </c>
+      <c r="AB38" s="3">
+        <f t="shared" si="27"/>
+        <v>871</v>
+      </c>
+      <c r="AC38" s="3">
+        <f t="shared" si="28"/>
+        <v>903</v>
+      </c>
+      <c r="AD38" s="3">
+        <f t="shared" si="29"/>
+        <v>953</v>
+      </c>
+      <c r="AE38" s="3">
+        <f t="shared" si="30"/>
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <f t="shared" si="0"/>
+        <v>907</v>
+      </c>
+      <c r="B39" s="3">
+        <f t="shared" si="1"/>
+        <v>891</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="2"/>
+        <v>890</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="3"/>
+        <v>814</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" si="4"/>
+        <v>785</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="5"/>
+        <v>762</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="6"/>
+        <v>737</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="7"/>
+        <v>711</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="8"/>
+        <v>649</v>
+      </c>
+      <c r="J39" s="3">
+        <f t="shared" si="9"/>
+        <v>635</v>
+      </c>
+      <c r="K39" s="3">
+        <f t="shared" si="10"/>
+        <v>595</v>
+      </c>
+      <c r="L39" s="3">
+        <f t="shared" si="11"/>
+        <v>572</v>
+      </c>
+      <c r="M39" s="3">
+        <f t="shared" si="12"/>
+        <v>513</v>
+      </c>
+      <c r="N39" s="3">
+        <f t="shared" si="13"/>
+        <v>503</v>
+      </c>
+      <c r="O39" s="3">
+        <f t="shared" si="14"/>
+        <v>466</v>
+      </c>
+      <c r="P39" s="3">
+        <f t="shared" si="15"/>
+        <v>312</v>
+      </c>
+      <c r="Q39" s="3">
+        <f t="shared" si="16"/>
+        <v>376</v>
+      </c>
+      <c r="R39" s="3">
+        <f t="shared" si="17"/>
+        <v>423</v>
+      </c>
+      <c r="S39" s="3">
+        <f t="shared" si="18"/>
+        <v>463</v>
+      </c>
+      <c r="T39" s="3">
+        <f t="shared" si="19"/>
+        <v>469</v>
+      </c>
+      <c r="U39" s="3">
+        <f t="shared" si="20"/>
+        <v>481</v>
+      </c>
+      <c r="V39" s="3">
+        <f t="shared" si="21"/>
+        <v>512</v>
+      </c>
+      <c r="W39" s="3">
+        <f t="shared" si="22"/>
+        <v>612</v>
+      </c>
+      <c r="X39" s="3">
+        <f t="shared" si="23"/>
+        <v>631</v>
+      </c>
+      <c r="Y39" s="3">
+        <f t="shared" si="24"/>
+        <v>707</v>
+      </c>
+      <c r="Z39" s="3">
+        <f t="shared" si="25"/>
+        <v>775</v>
+      </c>
+      <c r="AA39" s="3">
+        <f t="shared" si="26"/>
+        <v>805</v>
+      </c>
+      <c r="AB39" s="3">
+        <f t="shared" si="27"/>
+        <v>834</v>
+      </c>
+      <c r="AC39" s="3">
+        <f t="shared" si="28"/>
+        <v>870</v>
+      </c>
+      <c r="AD39" s="3">
+        <f t="shared" si="29"/>
+        <v>886</v>
+      </c>
+      <c r="AE39" s="3">
+        <f t="shared" si="30"/>
+        <v>933</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <f t="shared" si="0"/>
+        <v>892</v>
+      </c>
+      <c r="B40" s="3">
+        <f t="shared" si="1"/>
+        <v>872</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="2"/>
+        <v>852</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="3"/>
+        <v>813</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" si="4"/>
+        <v>762</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="5"/>
+        <v>721</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="6"/>
+        <v>697</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="7"/>
+        <v>688</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" si="8"/>
+        <v>635</v>
+      </c>
+      <c r="J40" s="3">
+        <f t="shared" si="9"/>
+        <v>588</v>
+      </c>
+      <c r="K40" s="3">
+        <f t="shared" si="10"/>
+        <v>574</v>
+      </c>
+      <c r="L40" s="3">
+        <f t="shared" si="11"/>
+        <v>552</v>
+      </c>
+      <c r="M40" s="3">
+        <f t="shared" si="12"/>
+        <v>499</v>
+      </c>
+      <c r="N40" s="3">
+        <f t="shared" si="13"/>
+        <v>470</v>
+      </c>
+      <c r="O40" s="3">
+        <f t="shared" si="14"/>
+        <v>461</v>
+      </c>
+      <c r="P40" s="3">
+        <f t="shared" si="15"/>
+        <v>285</v>
+      </c>
+      <c r="Q40" s="3">
+        <f t="shared" si="16"/>
+        <v>346</v>
+      </c>
+      <c r="R40" s="3">
+        <f t="shared" si="17"/>
+        <v>389</v>
+      </c>
+      <c r="S40" s="3">
+        <f t="shared" si="18"/>
+        <v>406</v>
+      </c>
+      <c r="T40" s="3">
+        <f t="shared" si="19"/>
+        <v>429</v>
+      </c>
+      <c r="U40" s="3">
+        <f t="shared" si="20"/>
+        <v>459</v>
+      </c>
+      <c r="V40" s="3">
+        <f t="shared" si="21"/>
+        <v>490</v>
+      </c>
+      <c r="W40" s="3">
+        <f t="shared" si="22"/>
+        <v>587</v>
+      </c>
+      <c r="X40" s="3">
+        <f t="shared" si="23"/>
+        <v>630</v>
+      </c>
+      <c r="Y40" s="3">
+        <f t="shared" si="24"/>
+        <v>678</v>
+      </c>
+      <c r="Z40" s="3">
+        <f t="shared" si="25"/>
+        <v>726</v>
+      </c>
+      <c r="AA40" s="3">
+        <f t="shared" si="26"/>
+        <v>745</v>
+      </c>
+      <c r="AB40" s="3">
+        <f t="shared" si="27"/>
+        <v>757</v>
+      </c>
+      <c r="AC40" s="3">
+        <f t="shared" si="28"/>
+        <v>784</v>
+      </c>
+      <c r="AD40" s="3">
+        <f t="shared" si="29"/>
+        <v>809</v>
+      </c>
+      <c r="AE40" s="3">
+        <f t="shared" si="30"/>
+        <v>890</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <f t="shared" si="0"/>
+        <v>839</v>
+      </c>
+      <c r="B41" s="3">
+        <f t="shared" si="1"/>
+        <v>823</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="2"/>
+        <v>803</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="3"/>
+        <v>774</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="4"/>
+        <v>744</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="5"/>
+        <v>705</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="6"/>
+        <v>690</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="7"/>
+        <v>658</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" si="8"/>
+        <v>608</v>
+      </c>
+      <c r="J41" s="3">
+        <f t="shared" si="9"/>
+        <v>575</v>
+      </c>
+      <c r="K41" s="3">
+        <f t="shared" si="10"/>
+        <v>564</v>
+      </c>
+      <c r="L41" s="3">
+        <f t="shared" si="11"/>
+        <v>515</v>
+      </c>
+      <c r="M41" s="3">
+        <f t="shared" si="12"/>
+        <v>486</v>
+      </c>
+      <c r="N41" s="3">
+        <f t="shared" si="13"/>
+        <v>454</v>
+      </c>
+      <c r="O41" s="3">
+        <f t="shared" si="14"/>
+        <v>429</v>
+      </c>
+      <c r="P41" s="3">
+        <f t="shared" si="15"/>
+        <v>267</v>
+      </c>
+      <c r="Q41" s="3">
+        <f t="shared" si="16"/>
+        <v>314</v>
+      </c>
+      <c r="R41" s="3">
+        <f t="shared" si="17"/>
+        <v>362</v>
+      </c>
+      <c r="S41" s="3">
+        <f t="shared" si="18"/>
+        <v>368</v>
+      </c>
+      <c r="T41" s="3">
+        <f t="shared" si="19"/>
+        <v>372</v>
+      </c>
+      <c r="U41" s="3">
+        <f t="shared" si="20"/>
+        <v>388</v>
+      </c>
+      <c r="V41" s="3">
+        <f t="shared" si="21"/>
+        <v>413</v>
+      </c>
+      <c r="W41" s="3">
+        <f t="shared" si="22"/>
+        <v>566</v>
+      </c>
+      <c r="X41" s="3">
+        <f t="shared" si="23"/>
+        <v>582</v>
+      </c>
+      <c r="Y41" s="3">
+        <f t="shared" si="24"/>
+        <v>625</v>
+      </c>
+      <c r="Z41" s="3">
+        <f t="shared" si="25"/>
+        <v>662</v>
+      </c>
+      <c r="AA41" s="3">
+        <f t="shared" si="26"/>
+        <v>705</v>
+      </c>
+      <c r="AB41" s="3">
+        <f t="shared" si="27"/>
+        <v>727</v>
+      </c>
+      <c r="AC41" s="3">
+        <f t="shared" si="28"/>
+        <v>766</v>
+      </c>
+      <c r="AD41" s="3">
+        <f t="shared" si="29"/>
+        <v>802</v>
+      </c>
+      <c r="AE41" s="3">
+        <f t="shared" si="30"/>
+        <v>855</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <f t="shared" si="0"/>
+        <v>791</v>
+      </c>
+      <c r="B42" s="3">
+        <f t="shared" si="1"/>
+        <v>744</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="2"/>
+        <v>731</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="3"/>
+        <v>709</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="4"/>
+        <v>687</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="5"/>
+        <v>684</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="6"/>
+        <v>639</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="7"/>
+        <v>589</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="8"/>
+        <v>580</v>
+      </c>
+      <c r="J42" s="3">
+        <f t="shared" si="9"/>
+        <v>494</v>
+      </c>
+      <c r="K42" s="3">
+        <f t="shared" si="10"/>
+        <v>468</v>
+      </c>
+      <c r="L42" s="3">
+        <f t="shared" si="11"/>
+        <v>449</v>
+      </c>
+      <c r="M42" s="3">
+        <f t="shared" si="12"/>
+        <v>420</v>
+      </c>
+      <c r="N42" s="3">
+        <f t="shared" si="13"/>
+        <v>392</v>
+      </c>
+      <c r="O42" s="3">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+      <c r="P42" s="3">
+        <f t="shared" si="15"/>
+        <v>245</v>
+      </c>
+      <c r="Q42" s="3">
+        <f t="shared" si="16"/>
+        <v>259</v>
+      </c>
+      <c r="R42" s="3">
+        <f t="shared" si="17"/>
+        <v>302</v>
+      </c>
+      <c r="S42" s="3">
+        <f t="shared" si="18"/>
+        <v>336</v>
+      </c>
+      <c r="T42" s="3">
+        <f t="shared" si="19"/>
+        <v>337</v>
+      </c>
+      <c r="U42" s="3">
+        <f t="shared" si="20"/>
+        <v>362</v>
+      </c>
+      <c r="V42" s="3">
+        <f t="shared" si="21"/>
+        <v>393</v>
+      </c>
+      <c r="W42" s="3">
+        <f t="shared" si="22"/>
+        <v>537</v>
+      </c>
+      <c r="X42" s="3">
+        <f t="shared" si="23"/>
+        <v>577</v>
+      </c>
+      <c r="Y42" s="3">
+        <f t="shared" si="24"/>
+        <v>614</v>
+      </c>
+      <c r="Z42" s="3">
+        <f t="shared" si="25"/>
+        <v>615</v>
+      </c>
+      <c r="AA42" s="3">
+        <f t="shared" si="26"/>
+        <v>637</v>
+      </c>
+      <c r="AB42" s="3">
+        <f t="shared" si="27"/>
+        <v>644</v>
+      </c>
+      <c r="AC42" s="3">
+        <f t="shared" si="28"/>
+        <v>738</v>
+      </c>
+      <c r="AD42" s="3">
+        <f t="shared" si="29"/>
+        <v>743</v>
+      </c>
+      <c r="AE42" s="3">
+        <f t="shared" si="30"/>
+        <v>821</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <f t="shared" si="0"/>
+        <v>754</v>
+      </c>
+      <c r="B43" s="3">
+        <f t="shared" si="1"/>
+        <v>733</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="2"/>
+        <v>709</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="3"/>
+        <v>659</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="4"/>
+        <v>646</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="5"/>
+        <v>597</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="6"/>
+        <v>596</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="7"/>
+        <v>580</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="8"/>
+        <v>532</v>
+      </c>
+      <c r="J43" s="3">
+        <f t="shared" si="9"/>
+        <v>484</v>
+      </c>
+      <c r="K43" s="3">
+        <f t="shared" si="10"/>
+        <v>456</v>
+      </c>
+      <c r="L43" s="3">
+        <f t="shared" si="11"/>
+        <v>446</v>
+      </c>
+      <c r="M43" s="3">
+        <f t="shared" si="12"/>
+        <v>408</v>
+      </c>
+      <c r="N43" s="3">
+        <f t="shared" si="13"/>
+        <v>365</v>
+      </c>
+      <c r="O43" s="3">
+        <f t="shared" si="14"/>
+        <v>345</v>
+      </c>
+      <c r="P43" s="3">
+        <f t="shared" si="15"/>
+        <v>202</v>
+      </c>
+      <c r="Q43" s="3">
+        <f t="shared" si="16"/>
+        <v>244</v>
+      </c>
+      <c r="R43" s="3">
+        <f t="shared" si="17"/>
+        <v>248</v>
+      </c>
+      <c r="S43" s="3">
+        <f t="shared" si="18"/>
+        <v>279</v>
+      </c>
+      <c r="T43" s="3">
+        <f t="shared" si="19"/>
+        <v>332</v>
+      </c>
+      <c r="U43" s="3">
+        <f t="shared" si="20"/>
+        <v>338</v>
+      </c>
+      <c r="V43" s="3">
+        <f t="shared" si="21"/>
+        <v>392</v>
+      </c>
+      <c r="W43" s="3">
+        <f t="shared" si="22"/>
+        <v>490</v>
+      </c>
+      <c r="X43" s="3">
+        <f t="shared" si="23"/>
+        <v>527</v>
+      </c>
+      <c r="Y43" s="3">
+        <f t="shared" si="24"/>
+        <v>558</v>
+      </c>
+      <c r="Z43" s="3">
+        <f t="shared" si="25"/>
+        <v>559</v>
+      </c>
+      <c r="AA43" s="3">
+        <f t="shared" si="26"/>
+        <v>618</v>
+      </c>
+      <c r="AB43" s="3">
+        <f t="shared" si="27"/>
+        <v>635</v>
+      </c>
+      <c r="AC43" s="3">
+        <f t="shared" si="28"/>
+        <v>712</v>
+      </c>
+      <c r="AD43" s="3">
+        <f t="shared" si="29"/>
+        <v>720</v>
+      </c>
+      <c r="AE43" s="3">
+        <f t="shared" si="30"/>
+        <v>801</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <f t="shared" si="0"/>
+        <v>738</v>
+      </c>
+      <c r="B44" s="3">
+        <f t="shared" si="1"/>
+        <v>708</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="2"/>
+        <v>658</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="3"/>
+        <v>631</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" si="4"/>
+        <v>582</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="5"/>
+        <v>563</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="6"/>
+        <v>497</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="7"/>
+        <v>451</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="8"/>
+        <v>443</v>
+      </c>
+      <c r="J44" s="3">
+        <f t="shared" si="9"/>
+        <v>424</v>
+      </c>
+      <c r="K44" s="3">
+        <f t="shared" si="10"/>
+        <v>418</v>
+      </c>
+      <c r="L44" s="3">
+        <f t="shared" si="11"/>
+        <v>341</v>
+      </c>
+      <c r="M44" s="3">
+        <f t="shared" si="12"/>
+        <v>339</v>
+      </c>
+      <c r="N44" s="3">
+        <f t="shared" si="13"/>
+        <v>316</v>
+      </c>
+      <c r="O44" s="3">
+        <f t="shared" si="14"/>
+        <v>301</v>
+      </c>
+      <c r="P44" s="3">
+        <f t="shared" si="15"/>
+        <v>169</v>
+      </c>
+      <c r="Q44" s="3">
+        <f t="shared" si="16"/>
+        <v>202</v>
+      </c>
+      <c r="R44" s="3">
+        <f t="shared" si="17"/>
+        <v>223</v>
+      </c>
+      <c r="S44" s="3">
+        <f t="shared" si="18"/>
+        <v>258</v>
+      </c>
+      <c r="T44" s="3">
+        <f t="shared" si="19"/>
+        <v>322</v>
+      </c>
+      <c r="U44" s="3">
+        <f t="shared" si="20"/>
+        <v>331</v>
+      </c>
+      <c r="V44" s="3">
+        <f t="shared" si="21"/>
+        <v>365</v>
+      </c>
+      <c r="W44" s="3">
+        <f t="shared" si="22"/>
+        <v>464</v>
+      </c>
+      <c r="X44" s="3">
+        <f t="shared" si="23"/>
+        <v>479</v>
+      </c>
+      <c r="Y44" s="3">
+        <f t="shared" si="24"/>
+        <v>507</v>
+      </c>
+      <c r="Z44" s="3">
+        <f t="shared" si="25"/>
+        <v>557</v>
+      </c>
+      <c r="AA44" s="3">
+        <f t="shared" si="26"/>
+        <v>606</v>
+      </c>
+      <c r="AB44" s="3">
+        <f t="shared" si="27"/>
+        <v>628</v>
+      </c>
+      <c r="AC44" s="3">
+        <f t="shared" si="28"/>
+        <v>662</v>
+      </c>
+      <c r="AD44" s="3">
+        <f t="shared" si="29"/>
+        <v>683</v>
+      </c>
+      <c r="AE44" s="3">
+        <f t="shared" si="30"/>
+        <v>765</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="B45" s="3">
+        <f t="shared" si="1"/>
+        <v>657</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" si="2"/>
+        <v>621</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="3"/>
+        <v>578</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="4"/>
+        <v>545</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="5"/>
+        <v>531</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="6"/>
+        <v>490</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="7"/>
+        <v>450</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="8"/>
+        <v>409</v>
+      </c>
+      <c r="J45" s="3">
+        <f t="shared" si="9"/>
+        <v>393</v>
+      </c>
+      <c r="K45" s="3">
+        <f t="shared" si="10"/>
+        <v>392</v>
+      </c>
+      <c r="L45" s="3">
+        <f t="shared" si="11"/>
+        <v>327</v>
+      </c>
+      <c r="M45" s="3">
+        <f t="shared" si="12"/>
+        <v>299</v>
+      </c>
+      <c r="N45" s="3">
+        <f t="shared" si="13"/>
+        <v>290</v>
+      </c>
+      <c r="O45" s="3">
+        <f t="shared" si="14"/>
+        <v>259</v>
+      </c>
+      <c r="P45" s="3">
+        <f t="shared" si="15"/>
+        <v>133</v>
+      </c>
+      <c r="Q45" s="3">
+        <f t="shared" si="16"/>
+        <v>165</v>
+      </c>
+      <c r="R45" s="3">
+        <f t="shared" si="17"/>
+        <v>193</v>
+      </c>
+      <c r="S45" s="3">
+        <f t="shared" si="18"/>
+        <v>257</v>
+      </c>
+      <c r="T45" s="3">
+        <f t="shared" si="19"/>
+        <v>278</v>
+      </c>
+      <c r="U45" s="3">
+        <f t="shared" si="20"/>
+        <v>316</v>
+      </c>
+      <c r="V45" s="3">
+        <f t="shared" si="21"/>
+        <v>349</v>
+      </c>
+      <c r="W45" s="3">
+        <f t="shared" si="22"/>
+        <v>422</v>
+      </c>
+      <c r="X45" s="3">
+        <f t="shared" si="23"/>
+        <v>452</v>
+      </c>
+      <c r="Y45" s="3">
+        <f t="shared" si="24"/>
+        <v>501</v>
+      </c>
+      <c r="Z45" s="3">
+        <f t="shared" si="25"/>
+        <v>518</v>
+      </c>
+      <c r="AA45" s="3">
+        <f t="shared" si="26"/>
+        <v>539</v>
+      </c>
+      <c r="AB45" s="3">
+        <f t="shared" si="27"/>
+        <v>570</v>
+      </c>
+      <c r="AC45" s="3">
+        <f t="shared" si="28"/>
+        <v>601</v>
+      </c>
+      <c r="AD45" s="3">
+        <f t="shared" si="29"/>
+        <v>638</v>
+      </c>
+      <c r="AE45" s="3">
+        <f t="shared" si="30"/>
+        <v>753</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="0"/>
+        <v>653</v>
+      </c>
+      <c r="B46" s="3">
+        <f t="shared" si="1"/>
+        <v>651</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" si="2"/>
+        <v>620</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" si="3"/>
+        <v>572</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="4"/>
+        <v>523</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="5"/>
+        <v>521</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="6"/>
+        <v>444</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="7"/>
+        <v>395</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="8"/>
+        <v>394</v>
+      </c>
+      <c r="J46" s="3">
+        <f t="shared" si="9"/>
+        <v>378</v>
+      </c>
+      <c r="K46" s="3">
+        <f t="shared" si="10"/>
+        <v>345</v>
+      </c>
+      <c r="L46" s="3">
+        <f t="shared" si="11"/>
+        <v>304</v>
+      </c>
+      <c r="M46" s="3">
+        <f t="shared" si="12"/>
+        <v>280</v>
+      </c>
+      <c r="N46" s="3">
+        <f t="shared" si="13"/>
+        <v>248</v>
+      </c>
+      <c r="O46" s="3">
+        <f t="shared" si="14"/>
+        <v>222</v>
+      </c>
+      <c r="P46" s="3">
+        <f t="shared" si="15"/>
+        <v>131</v>
+      </c>
+      <c r="Q46" s="3">
+        <f t="shared" si="16"/>
+        <v>161</v>
+      </c>
+      <c r="R46" s="3">
+        <f t="shared" si="17"/>
+        <v>183</v>
+      </c>
+      <c r="S46" s="3">
+        <f t="shared" si="18"/>
+        <v>249</v>
+      </c>
+      <c r="T46" s="3">
+        <f t="shared" si="19"/>
+        <v>274</v>
+      </c>
+      <c r="U46" s="3">
+        <f t="shared" si="20"/>
+        <v>290</v>
+      </c>
+      <c r="V46" s="3">
+        <f t="shared" si="21"/>
+        <v>336</v>
+      </c>
+      <c r="W46" s="3">
+        <f t="shared" si="22"/>
+        <v>401</v>
+      </c>
+      <c r="X46" s="3">
+        <f t="shared" si="23"/>
+        <v>411</v>
+      </c>
+      <c r="Y46" s="3">
+        <f t="shared" si="24"/>
+        <v>466</v>
+      </c>
+      <c r="Z46" s="3">
+        <f t="shared" si="25"/>
+        <v>507</v>
+      </c>
+      <c r="AA46" s="3">
+        <f t="shared" si="26"/>
+        <v>524</v>
+      </c>
+      <c r="AB46" s="3">
+        <f t="shared" si="27"/>
+        <v>556</v>
+      </c>
+      <c r="AC46" s="3">
+        <f t="shared" si="28"/>
+        <v>599</v>
+      </c>
+      <c r="AD46" s="3">
+        <f t="shared" si="29"/>
+        <v>613</v>
+      </c>
+      <c r="AE46" s="3">
+        <f t="shared" si="30"/>
+        <v>711</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <f t="shared" si="0"/>
+        <v>645</v>
+      </c>
+      <c r="B47" s="3">
+        <f t="shared" si="1"/>
+        <v>631</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" si="2"/>
+        <v>603</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" si="3"/>
+        <v>566</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" si="4"/>
+        <v>488</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="5"/>
+        <v>480</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="6"/>
+        <v>437</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="7"/>
+        <v>379</v>
+      </c>
+      <c r="I47" s="3">
+        <f t="shared" si="8"/>
+        <v>347</v>
+      </c>
+      <c r="J47" s="3">
+        <f t="shared" si="9"/>
+        <v>336</v>
+      </c>
+      <c r="K47" s="3">
+        <f t="shared" si="10"/>
+        <v>282</v>
+      </c>
+      <c r="L47" s="3">
+        <f t="shared" si="11"/>
+        <v>260</v>
+      </c>
+      <c r="M47" s="3">
+        <f t="shared" si="12"/>
+        <v>216</v>
+      </c>
+      <c r="N47" s="3">
+        <f t="shared" si="13"/>
+        <v>198</v>
+      </c>
+      <c r="O47" s="3">
+        <f t="shared" si="14"/>
+        <v>191</v>
+      </c>
+      <c r="P47" s="3">
+        <f t="shared" si="15"/>
+        <v>124</v>
+      </c>
+      <c r="Q47" s="3">
+        <f t="shared" si="16"/>
+        <v>149</v>
+      </c>
+      <c r="R47" s="3">
+        <f t="shared" si="17"/>
+        <v>163</v>
+      </c>
+      <c r="S47" s="3">
+        <f t="shared" si="18"/>
+        <v>212</v>
+      </c>
+      <c r="T47" s="3">
+        <f t="shared" si="19"/>
+        <v>227</v>
+      </c>
+      <c r="U47" s="3">
+        <f t="shared" si="20"/>
+        <v>257</v>
+      </c>
+      <c r="V47" s="3">
+        <f t="shared" si="21"/>
+        <v>335</v>
+      </c>
+      <c r="W47" s="3">
+        <f t="shared" si="22"/>
+        <v>361</v>
+      </c>
+      <c r="X47" s="3">
+        <f t="shared" si="23"/>
+        <v>393</v>
+      </c>
+      <c r="Y47" s="3">
+        <f t="shared" si="24"/>
+        <v>436</v>
+      </c>
+      <c r="Z47" s="3">
+        <f t="shared" si="25"/>
+        <v>460</v>
+      </c>
+      <c r="AA47" s="3">
+        <f t="shared" si="26"/>
+        <v>470</v>
+      </c>
+      <c r="AB47" s="3">
+        <f t="shared" si="27"/>
+        <v>529</v>
+      </c>
+      <c r="AC47" s="3">
+        <f t="shared" si="28"/>
+        <v>566</v>
+      </c>
+      <c r="AD47" s="3">
+        <f t="shared" si="29"/>
+        <v>595</v>
+      </c>
+      <c r="AE47" s="3">
+        <f t="shared" si="30"/>
+        <v>663</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <f t="shared" si="0"/>
+        <v>581</v>
+      </c>
+      <c r="B48" s="3">
+        <f t="shared" si="1"/>
+        <v>573</v>
+      </c>
+      <c r="C48" s="3">
+        <f t="shared" si="2"/>
+        <v>538</v>
+      </c>
+      <c r="D48" s="3">
+        <f t="shared" si="3"/>
+        <v>516</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" si="4"/>
+        <v>468</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="5"/>
+        <v>452</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="6"/>
+        <v>395</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" si="7"/>
+        <v>362</v>
+      </c>
+      <c r="I48" s="3">
+        <f t="shared" si="8"/>
+        <v>344</v>
+      </c>
+      <c r="J48" s="3">
+        <f t="shared" si="9"/>
+        <v>319</v>
+      </c>
+      <c r="K48" s="3">
+        <f t="shared" si="10"/>
+        <v>274</v>
+      </c>
+      <c r="L48" s="3">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="M48" s="3">
+        <f t="shared" si="12"/>
+        <v>208</v>
+      </c>
+      <c r="N48" s="3">
+        <f t="shared" si="13"/>
+        <v>180</v>
+      </c>
+      <c r="O48" s="3">
+        <f t="shared" si="14"/>
+        <v>146</v>
+      </c>
+      <c r="P48" s="3">
+        <f>P49+P14</f>
+        <v>111</v>
+      </c>
+      <c r="Q48" s="3">
+        <f t="shared" si="16"/>
+        <v>113</v>
+      </c>
+      <c r="R48" s="3">
+        <f t="shared" si="17"/>
+        <v>152</v>
+      </c>
+      <c r="S48" s="3">
+        <f t="shared" si="18"/>
+        <v>185</v>
+      </c>
+      <c r="T48" s="3">
+        <f t="shared" si="19"/>
+        <v>207</v>
+      </c>
+      <c r="U48" s="3">
+        <f t="shared" si="20"/>
+        <v>222</v>
+      </c>
+      <c r="V48" s="3">
+        <f t="shared" si="21"/>
+        <v>292</v>
+      </c>
+      <c r="W48" s="3">
+        <f t="shared" si="22"/>
+        <v>296</v>
+      </c>
+      <c r="X48" s="3">
+        <f t="shared" si="23"/>
+        <v>321</v>
+      </c>
+      <c r="Y48" s="3">
+        <f t="shared" si="24"/>
+        <v>347</v>
+      </c>
+      <c r="Z48" s="3">
+        <f t="shared" si="25"/>
+        <v>424</v>
+      </c>
+      <c r="AA48" s="3">
+        <f t="shared" si="26"/>
+        <v>468</v>
+      </c>
+      <c r="AB48" s="3">
+        <f t="shared" si="27"/>
+        <v>511</v>
+      </c>
+      <c r="AC48" s="3">
+        <f t="shared" si="28"/>
+        <v>559</v>
+      </c>
+      <c r="AD48" s="3">
+        <f t="shared" si="29"/>
+        <v>577</v>
+      </c>
+      <c r="AE48" s="3">
+        <f t="shared" si="30"/>
+        <v>621</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <f t="shared" si="0"/>
+        <v>506</v>
+      </c>
+      <c r="B49" s="3">
+        <f t="shared" si="1"/>
+        <v>470</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" si="2"/>
+        <v>446</v>
+      </c>
+      <c r="D49" s="3">
+        <f t="shared" si="3"/>
+        <v>429</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" si="4"/>
+        <v>410</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="5"/>
+        <v>408</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="6"/>
+        <v>364</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="7"/>
+        <v>347</v>
+      </c>
+      <c r="I49" s="3">
+        <f t="shared" si="8"/>
+        <v>302</v>
+      </c>
+      <c r="J49" s="3">
+        <f t="shared" si="9"/>
+        <v>263</v>
+      </c>
+      <c r="K49" s="3">
+        <f t="shared" si="10"/>
+        <v>244</v>
+      </c>
+      <c r="L49" s="3">
+        <f t="shared" si="11"/>
+        <v>204</v>
+      </c>
+      <c r="M49" s="3">
+        <f t="shared" si="12"/>
+        <v>173</v>
+      </c>
+      <c r="N49" s="3">
+        <f t="shared" si="13"/>
+        <v>123</v>
+      </c>
+      <c r="O49" s="3">
+        <f>MAX(P49,O50) +O15</f>
+        <v>108</v>
+      </c>
+      <c r="P49" s="3">
+        <f>P50+P15</f>
+        <v>70</v>
+      </c>
+      <c r="Q49" s="3">
+        <f>MAX(P49,Q50)+Q15</f>
+        <v>81</v>
+      </c>
+      <c r="R49" s="3">
+        <f t="shared" ref="R49:AE49" si="31">MAX(Q49,R50)+R15</f>
+        <v>131</v>
+      </c>
+      <c r="S49" s="3">
+        <f t="shared" si="31"/>
+        <v>132</v>
+      </c>
+      <c r="T49" s="3">
+        <f t="shared" si="31"/>
+        <v>170</v>
+      </c>
+      <c r="U49" s="3">
+        <f t="shared" si="31"/>
+        <v>204</v>
+      </c>
+      <c r="V49" s="3">
+        <f t="shared" si="31"/>
+        <v>245</v>
+      </c>
+      <c r="W49" s="3">
+        <f t="shared" si="31"/>
+        <v>281</v>
+      </c>
+      <c r="X49" s="3">
+        <f t="shared" si="31"/>
+        <v>303</v>
+      </c>
+      <c r="Y49" s="3">
+        <f t="shared" si="31"/>
+        <v>343</v>
+      </c>
+      <c r="Z49" s="3">
+        <f t="shared" si="31"/>
+        <v>375</v>
+      </c>
+      <c r="AA49" s="3">
+        <f t="shared" si="31"/>
+        <v>394</v>
+      </c>
+      <c r="AB49" s="3">
+        <f t="shared" si="31"/>
+        <v>442</v>
+      </c>
+      <c r="AC49" s="3">
+        <f t="shared" si="31"/>
+        <v>479</v>
+      </c>
+      <c r="AD49" s="3">
+        <f t="shared" si="31"/>
+        <v>483</v>
+      </c>
+      <c r="AE49" s="3">
+        <f t="shared" si="31"/>
+        <v>515</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <f t="shared" ref="A50:N50" si="32">B50+A16</f>
+        <v>357</v>
+      </c>
+      <c r="B50" s="3">
+        <f t="shared" si="32"/>
+        <v>321</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" si="32"/>
+        <v>273</v>
+      </c>
+      <c r="D50" s="3">
+        <f t="shared" si="32"/>
+        <v>253</v>
+      </c>
+      <c r="E50" s="3">
+        <f t="shared" si="32"/>
+        <v>243</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" si="32"/>
+        <v>229</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="32"/>
+        <v>189</v>
+      </c>
+      <c r="H50" s="3">
+        <f t="shared" si="32"/>
+        <v>171</v>
+      </c>
+      <c r="I50" s="3">
+        <f t="shared" si="32"/>
+        <v>152</v>
+      </c>
+      <c r="J50" s="3">
+        <f t="shared" si="32"/>
+        <v>130</v>
+      </c>
+      <c r="K50" s="3">
+        <f t="shared" si="32"/>
+        <v>89</v>
+      </c>
+      <c r="L50" s="3">
+        <f t="shared" si="32"/>
+        <v>86</v>
+      </c>
+      <c r="M50" s="3">
+        <f t="shared" si="32"/>
+        <v>69</v>
+      </c>
+      <c r="N50" s="3">
+        <f t="shared" si="32"/>
+        <v>42</v>
+      </c>
+      <c r="O50" s="3">
+        <f>P50+O16</f>
+        <v>37</v>
+      </c>
+      <c r="P50" s="4">
+        <f t="shared" ref="P36:P51" si="33">P16</f>
+        <v>24</v>
+      </c>
+      <c r="Q50" s="3">
+        <f>P50+Q16</f>
+        <v>33</v>
+      </c>
+      <c r="R50" s="3">
+        <f t="shared" ref="R50:AE50" si="34">Q50+R16</f>
+        <v>65</v>
+      </c>
+      <c r="S50" s="3">
+        <f t="shared" si="34"/>
+        <v>88</v>
+      </c>
+      <c r="T50" s="3">
+        <f t="shared" si="34"/>
+        <v>90</v>
+      </c>
+      <c r="U50" s="3">
+        <f t="shared" si="34"/>
+        <v>117</v>
+      </c>
+      <c r="V50" s="3">
+        <f t="shared" si="34"/>
+        <v>141</v>
+      </c>
+      <c r="W50" s="3">
+        <f t="shared" si="34"/>
+        <v>171</v>
+      </c>
+      <c r="X50" s="3">
+        <f t="shared" si="34"/>
+        <v>202</v>
+      </c>
+      <c r="Y50" s="3">
+        <f t="shared" si="34"/>
+        <v>230</v>
+      </c>
+      <c r="Z50" s="3">
+        <f t="shared" si="34"/>
+        <v>256</v>
+      </c>
+      <c r="AA50" s="3">
+        <f t="shared" si="34"/>
+        <v>261</v>
+      </c>
+      <c r="AB50" s="3">
+        <f t="shared" si="34"/>
+        <v>290</v>
+      </c>
+      <c r="AC50" s="3">
+        <f t="shared" si="34"/>
+        <v>313</v>
+      </c>
+      <c r="AD50" s="3">
+        <f t="shared" si="34"/>
+        <v>322</v>
+      </c>
+      <c r="AE50" s="3">
+        <f t="shared" si="34"/>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <f t="shared" ref="A51:N65" si="35">MAX(A50,B51) + A17</f>
+        <v>509</v>
+      </c>
+      <c r="B51" s="3">
+        <f t="shared" si="35"/>
+        <v>483</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="35"/>
+        <v>442</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" si="35"/>
+        <v>405</v>
+      </c>
+      <c r="E51" s="3">
+        <f t="shared" si="35"/>
+        <v>367</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="35"/>
+        <v>342</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="35"/>
+        <v>328</v>
+      </c>
+      <c r="H51" s="3">
+        <f t="shared" si="35"/>
+        <v>301</v>
+      </c>
+      <c r="I51" s="3">
+        <f t="shared" si="35"/>
+        <v>264</v>
+      </c>
+      <c r="J51" s="3">
+        <f t="shared" si="35"/>
+        <v>258</v>
+      </c>
+      <c r="K51" s="3">
+        <f t="shared" si="35"/>
+        <v>251</v>
+      </c>
+      <c r="L51" s="3">
+        <f t="shared" si="35"/>
+        <v>214</v>
+      </c>
+      <c r="M51" s="3">
+        <f t="shared" si="35"/>
+        <v>172</v>
+      </c>
+      <c r="N51" s="3">
+        <f t="shared" si="35"/>
+        <v>122</v>
+      </c>
+      <c r="O51" s="3">
+        <f>MAX(O50,P51) + O17</f>
+        <v>117</v>
+      </c>
+      <c r="P51" s="3">
+        <f>P50+P17</f>
+        <v>67</v>
+      </c>
+      <c r="Q51" s="3">
+        <f>MAX(Q50,P51) + Q17</f>
+        <v>74</v>
+      </c>
+      <c r="R51" s="3">
+        <f t="shared" ref="R51:AE51" si="36">MAX(R50,Q51) + R17</f>
+        <v>91</v>
+      </c>
+      <c r="S51" s="3">
+        <f t="shared" si="36"/>
+        <v>98</v>
+      </c>
+      <c r="T51" s="3">
+        <f t="shared" si="36"/>
+        <v>114</v>
+      </c>
+      <c r="U51" s="3">
+        <f t="shared" si="36"/>
+        <v>153</v>
+      </c>
+      <c r="V51" s="3">
+        <f t="shared" si="36"/>
+        <v>187</v>
+      </c>
+      <c r="W51" s="3">
+        <f t="shared" si="36"/>
+        <v>231</v>
+      </c>
+      <c r="X51" s="3">
+        <f t="shared" si="36"/>
+        <v>242</v>
+      </c>
+      <c r="Y51" s="3">
+        <f t="shared" si="36"/>
+        <v>280</v>
+      </c>
+      <c r="Z51" s="3">
+        <f t="shared" si="36"/>
+        <v>312</v>
+      </c>
+      <c r="AA51" s="3">
+        <f t="shared" si="36"/>
+        <v>340</v>
+      </c>
+      <c r="AB51" s="3">
+        <f t="shared" si="36"/>
+        <v>378</v>
+      </c>
+      <c r="AC51" s="3">
+        <f t="shared" si="36"/>
+        <v>384</v>
+      </c>
+      <c r="AD51" s="3">
+        <f t="shared" si="36"/>
+        <v>393</v>
+      </c>
+      <c r="AE51" s="3">
+        <f t="shared" si="36"/>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <f t="shared" si="35"/>
+        <v>553</v>
+      </c>
+      <c r="B52" s="3">
+        <f t="shared" si="35"/>
+        <v>503</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" si="35"/>
+        <v>481</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" si="35"/>
+        <v>480</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" si="35"/>
+        <v>467</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" si="35"/>
+        <v>447</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="35"/>
+        <v>444</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" si="35"/>
+        <v>418</v>
+      </c>
+      <c r="I52" s="3">
+        <f t="shared" si="35"/>
+        <v>382</v>
+      </c>
+      <c r="J52" s="3">
+        <f t="shared" si="35"/>
+        <v>341</v>
+      </c>
+      <c r="K52" s="3">
+        <f t="shared" si="35"/>
+        <v>301</v>
+      </c>
+      <c r="L52" s="3">
+        <f t="shared" si="35"/>
+        <v>259</v>
+      </c>
+      <c r="M52" s="3">
+        <f t="shared" si="35"/>
+        <v>213</v>
+      </c>
+      <c r="N52" s="3">
+        <f t="shared" si="35"/>
+        <v>161</v>
+      </c>
+      <c r="O52" s="3">
+        <f t="shared" ref="O52:O65" si="37">MAX(O51,P52) + O18</f>
+        <v>137</v>
+      </c>
+      <c r="P52" s="3">
+        <f t="shared" ref="P52:P65" si="38">P51+P18</f>
+        <v>103</v>
+      </c>
+      <c r="Q52" s="3">
+        <f t="shared" ref="Q52:Q65" si="39">MAX(Q51,P52) + Q18</f>
+        <v>135</v>
+      </c>
+      <c r="R52" s="3">
+        <f t="shared" ref="R52:R65" si="40">MAX(R51,Q52) + R18</f>
+        <v>166</v>
+      </c>
+      <c r="S52" s="3">
+        <f t="shared" ref="S52:S65" si="41">MAX(S51,R52) + S18</f>
+        <v>171</v>
+      </c>
+      <c r="T52" s="3">
+        <f t="shared" ref="T52:T65" si="42">MAX(T51,S52) + T18</f>
+        <v>200</v>
+      </c>
+      <c r="U52" s="3">
+        <f t="shared" ref="U52:U65" si="43">MAX(U51,T52) + U18</f>
+        <v>248</v>
+      </c>
+      <c r="V52" s="3">
+        <f t="shared" ref="V52:V65" si="44">MAX(V51,U52) + V18</f>
+        <v>265</v>
+      </c>
+      <c r="W52" s="3">
+        <f t="shared" ref="W52:W65" si="45">MAX(W51,V52) + W18</f>
+        <v>292</v>
+      </c>
+      <c r="X52" s="3">
+        <f t="shared" ref="X52:X65" si="46">MAX(X51,W52) + X18</f>
+        <v>322</v>
+      </c>
+      <c r="Y52" s="3">
+        <f t="shared" ref="Y52:Y65" si="47">MAX(Y51,X52) + Y18</f>
+        <v>357</v>
+      </c>
+      <c r="Z52" s="3">
+        <f t="shared" ref="Z52:Z65" si="48">MAX(Z51,Y52) + Z18</f>
+        <v>361</v>
+      </c>
+      <c r="AA52" s="3">
+        <f t="shared" ref="AA52:AA65" si="49">MAX(AA51,Z52) + AA18</f>
+        <v>410</v>
+      </c>
+      <c r="AB52" s="3">
+        <f t="shared" ref="AB52:AB65" si="50">MAX(AB51,AA52) + AB18</f>
+        <v>419</v>
+      </c>
+      <c r="AC52" s="3">
+        <f t="shared" ref="AC52:AC65" si="51">MAX(AC51,AB52) + AC18</f>
+        <v>463</v>
+      </c>
+      <c r="AD52" s="3">
+        <f t="shared" ref="AD52:AD65" si="52">MAX(AD51,AC52) + AD18</f>
+        <v>470</v>
+      </c>
+      <c r="AE52" s="3">
+        <f t="shared" ref="AE52:AE65" si="53">MAX(AE51,AD52) + AE18</f>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f t="shared" si="35"/>
+        <v>643</v>
+      </c>
+      <c r="B53" s="3">
+        <f t="shared" si="35"/>
+        <v>639</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" si="35"/>
+        <v>597</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="35"/>
+        <v>577</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" si="35"/>
+        <v>562</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="35"/>
+        <v>531</v>
+      </c>
+      <c r="G53" s="3">
+        <f t="shared" si="35"/>
+        <v>481</v>
+      </c>
+      <c r="H53" s="3">
+        <f t="shared" si="35"/>
+        <v>423</v>
+      </c>
+      <c r="I53" s="3">
+        <f t="shared" si="35"/>
+        <v>393</v>
+      </c>
+      <c r="J53" s="3">
+        <f t="shared" si="35"/>
+        <v>369</v>
+      </c>
+      <c r="K53" s="3">
+        <f t="shared" si="35"/>
+        <v>302</v>
+      </c>
+      <c r="L53" s="3">
+        <f t="shared" si="35"/>
+        <v>260</v>
+      </c>
+      <c r="M53" s="3">
+        <f t="shared" si="35"/>
+        <v>229</v>
+      </c>
+      <c r="N53" s="3">
+        <f t="shared" si="35"/>
+        <v>164</v>
+      </c>
+      <c r="O53" s="3">
+        <f t="shared" si="37"/>
+        <v>152</v>
+      </c>
+      <c r="P53" s="3">
+        <f t="shared" si="38"/>
+        <v>143</v>
+      </c>
+      <c r="Q53" s="3">
+        <f t="shared" si="39"/>
+        <v>183</v>
+      </c>
+      <c r="R53" s="3">
+        <f t="shared" si="40"/>
+        <v>202</v>
+      </c>
+      <c r="S53" s="3">
+        <f t="shared" si="41"/>
+        <v>216</v>
+      </c>
+      <c r="T53" s="3">
+        <f t="shared" si="42"/>
+        <v>218</v>
+      </c>
+      <c r="U53" s="3">
+        <f t="shared" si="43"/>
+        <v>298</v>
+      </c>
+      <c r="V53" s="3">
+        <f t="shared" si="44"/>
+        <v>302</v>
+      </c>
+      <c r="W53" s="3">
+        <f t="shared" si="45"/>
+        <v>321</v>
+      </c>
+      <c r="X53" s="3">
+        <f t="shared" si="46"/>
+        <v>363</v>
+      </c>
+      <c r="Y53" s="3">
+        <f t="shared" si="47"/>
+        <v>396</v>
+      </c>
+      <c r="Z53" s="3">
+        <f t="shared" si="48"/>
+        <v>407</v>
+      </c>
+      <c r="AA53" s="3">
+        <f t="shared" si="49"/>
+        <v>430</v>
+      </c>
+      <c r="AB53" s="3">
+        <f t="shared" si="50"/>
+        <v>439</v>
+      </c>
+      <c r="AC53" s="3">
+        <f t="shared" si="51"/>
+        <v>475</v>
+      </c>
+      <c r="AD53" s="3">
+        <f t="shared" si="52"/>
+        <v>512</v>
+      </c>
+      <c r="AE53" s="3">
+        <f t="shared" si="53"/>
+        <v>553</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="35"/>
+        <v>746</v>
+      </c>
+      <c r="B54" s="3">
+        <f t="shared" si="35"/>
+        <v>734</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" si="35"/>
+        <v>694</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="35"/>
+        <v>646</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" si="35"/>
+        <v>623</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" si="35"/>
+        <v>594</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="35"/>
+        <v>544</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" si="35"/>
+        <v>501</v>
+      </c>
+      <c r="I54" s="3">
+        <f t="shared" si="35"/>
+        <v>453</v>
+      </c>
+      <c r="J54" s="3">
+        <f t="shared" si="35"/>
+        <v>403</v>
+      </c>
+      <c r="K54" s="3">
+        <f t="shared" si="35"/>
+        <v>337</v>
+      </c>
+      <c r="L54" s="3">
+        <f t="shared" si="35"/>
+        <v>295</v>
+      </c>
+      <c r="M54" s="3">
+        <f t="shared" si="35"/>
+        <v>262</v>
+      </c>
+      <c r="N54" s="3">
+        <f t="shared" si="35"/>
+        <v>249</v>
+      </c>
+      <c r="O54" s="3">
+        <f t="shared" si="37"/>
+        <v>213</v>
+      </c>
+      <c r="P54" s="3">
+        <f t="shared" si="38"/>
+        <v>178</v>
+      </c>
+      <c r="Q54" s="3">
+        <f t="shared" si="39"/>
+        <v>213</v>
+      </c>
+      <c r="R54" s="3">
+        <f t="shared" si="40"/>
+        <v>251</v>
+      </c>
+      <c r="S54" s="3">
+        <f t="shared" si="41"/>
+        <v>257</v>
+      </c>
+      <c r="T54" s="3">
+        <f t="shared" si="42"/>
+        <v>265</v>
+      </c>
+      <c r="U54" s="3">
+        <f t="shared" si="43"/>
+        <v>299</v>
+      </c>
+      <c r="V54" s="3">
+        <f t="shared" si="44"/>
+        <v>346</v>
+      </c>
+      <c r="W54" s="3">
+        <f t="shared" si="45"/>
+        <v>355</v>
+      </c>
+      <c r="X54" s="3">
+        <f t="shared" si="46"/>
+        <v>394</v>
+      </c>
+      <c r="Y54" s="3">
+        <f t="shared" si="47"/>
+        <v>435</v>
+      </c>
+      <c r="Z54" s="3">
+        <f t="shared" si="48"/>
+        <v>443</v>
+      </c>
+      <c r="AA54" s="3">
+        <f t="shared" si="49"/>
+        <v>448</v>
+      </c>
+      <c r="AB54" s="3">
+        <f t="shared" si="50"/>
+        <v>450</v>
+      </c>
+      <c r="AC54" s="3">
+        <f t="shared" si="51"/>
+        <v>489</v>
+      </c>
+      <c r="AD54" s="3">
+        <f t="shared" si="52"/>
+        <v>516</v>
+      </c>
+      <c r="AE54" s="3">
+        <f t="shared" si="53"/>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f t="shared" si="35"/>
+        <v>797</v>
+      </c>
+      <c r="B55" s="3">
+        <f t="shared" si="35"/>
+        <v>758</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" si="35"/>
+        <v>713</v>
+      </c>
+      <c r="D55" s="3">
+        <f t="shared" si="35"/>
+        <v>680</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" si="35"/>
+        <v>631</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="35"/>
+        <v>620</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" si="35"/>
+        <v>545</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" si="35"/>
+        <v>507</v>
+      </c>
+      <c r="I55" s="3">
+        <f t="shared" si="35"/>
+        <v>479</v>
+      </c>
+      <c r="J55" s="3">
+        <f t="shared" si="35"/>
+        <v>423</v>
+      </c>
+      <c r="K55" s="3">
+        <f t="shared" si="35"/>
+        <v>387</v>
+      </c>
+      <c r="L55" s="3">
+        <f t="shared" si="35"/>
+        <v>313</v>
+      </c>
+      <c r="M55" s="3">
+        <f t="shared" si="35"/>
+        <v>306</v>
+      </c>
+      <c r="N55" s="3">
+        <f t="shared" si="35"/>
+        <v>257</v>
+      </c>
+      <c r="O55" s="3">
+        <f t="shared" si="37"/>
+        <v>251</v>
+      </c>
+      <c r="P55" s="3">
+        <f t="shared" si="38"/>
+        <v>179</v>
+      </c>
+      <c r="Q55" s="3">
+        <f t="shared" si="39"/>
+        <v>217</v>
+      </c>
+      <c r="R55" s="3">
+        <f t="shared" si="40"/>
+        <v>273</v>
+      </c>
+      <c r="S55" s="3">
+        <f t="shared" si="41"/>
+        <v>299</v>
+      </c>
+      <c r="T55" s="3">
+        <f t="shared" si="42"/>
+        <v>323</v>
+      </c>
+      <c r="U55" s="3">
+        <f t="shared" si="43"/>
+        <v>368</v>
+      </c>
+      <c r="V55" s="3">
+        <f t="shared" si="44"/>
+        <v>412</v>
+      </c>
+      <c r="W55" s="3">
+        <f t="shared" si="45"/>
+        <v>442</v>
+      </c>
+      <c r="X55" s="3">
+        <f t="shared" si="46"/>
+        <v>466</v>
+      </c>
+      <c r="Y55" s="3">
+        <f t="shared" si="47"/>
+        <v>490</v>
+      </c>
+      <c r="Z55" s="3">
+        <f t="shared" si="48"/>
+        <v>518</v>
+      </c>
+      <c r="AA55" s="3">
+        <f t="shared" si="49"/>
+        <v>524</v>
+      </c>
+      <c r="AB55" s="3">
+        <f t="shared" si="50"/>
+        <v>568</v>
+      </c>
+      <c r="AC55" s="3">
+        <f t="shared" si="51"/>
+        <v>597</v>
+      </c>
+      <c r="AD55" s="3">
+        <f t="shared" si="52"/>
+        <v>615</v>
+      </c>
+      <c r="AE55" s="3">
+        <f t="shared" si="53"/>
+        <v>622</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <f t="shared" si="35"/>
+        <v>850</v>
+      </c>
+      <c r="B56" s="3">
+        <f t="shared" si="35"/>
+        <v>807</v>
+      </c>
+      <c r="C56" s="3">
+        <f t="shared" si="35"/>
+        <v>772</v>
+      </c>
+      <c r="D56" s="3">
+        <f t="shared" si="35"/>
+        <v>730</v>
+      </c>
+      <c r="E56" s="3">
+        <f t="shared" si="35"/>
+        <v>693</v>
+      </c>
+      <c r="F56" s="3">
+        <f t="shared" si="35"/>
+        <v>648</v>
+      </c>
+      <c r="G56" s="3">
+        <f t="shared" si="35"/>
+        <v>564</v>
+      </c>
+      <c r="H56" s="3">
+        <f t="shared" si="35"/>
+        <v>526</v>
+      </c>
+      <c r="I56" s="3">
+        <f t="shared" si="35"/>
+        <v>499</v>
+      </c>
+      <c r="J56" s="3">
+        <f t="shared" si="35"/>
+        <v>432</v>
+      </c>
+      <c r="K56" s="3">
+        <f t="shared" si="35"/>
+        <v>418</v>
+      </c>
+      <c r="L56" s="3">
+        <f t="shared" si="35"/>
+        <v>381</v>
+      </c>
+      <c r="M56" s="3">
+        <f t="shared" si="35"/>
+        <v>350</v>
+      </c>
+      <c r="N56" s="3">
+        <f t="shared" si="35"/>
+        <v>316</v>
+      </c>
+      <c r="O56" s="3">
+        <f t="shared" si="37"/>
+        <v>266</v>
+      </c>
+      <c r="P56" s="3">
+        <f t="shared" si="38"/>
+        <v>213</v>
+      </c>
+      <c r="Q56" s="3">
+        <f t="shared" si="39"/>
+        <v>218</v>
+      </c>
+      <c r="R56" s="3">
+        <f t="shared" si="40"/>
+        <v>278</v>
+      </c>
+      <c r="S56" s="3">
+        <f t="shared" si="41"/>
+        <v>329</v>
+      </c>
+      <c r="T56" s="3">
+        <f t="shared" si="42"/>
+        <v>364</v>
+      </c>
+      <c r="U56" s="3">
+        <f t="shared" si="43"/>
+        <v>376</v>
+      </c>
+      <c r="V56" s="3">
+        <f t="shared" si="44"/>
+        <v>415</v>
+      </c>
+      <c r="W56" s="3">
+        <f t="shared" si="45"/>
+        <v>453</v>
+      </c>
+      <c r="X56" s="3">
+        <f t="shared" si="46"/>
+        <v>514</v>
+      </c>
+      <c r="Y56" s="3">
+        <f t="shared" si="47"/>
+        <v>523</v>
+      </c>
+      <c r="Z56" s="3">
+        <f t="shared" si="48"/>
+        <v>552</v>
+      </c>
+      <c r="AA56" s="3">
+        <f t="shared" si="49"/>
+        <v>572</v>
+      </c>
+      <c r="AB56" s="3">
+        <f t="shared" si="50"/>
+        <v>578</v>
+      </c>
+      <c r="AC56" s="3">
+        <f t="shared" si="51"/>
+        <v>603</v>
+      </c>
+      <c r="AD56" s="3">
+        <f t="shared" si="52"/>
+        <v>649</v>
+      </c>
+      <c r="AE56" s="3">
+        <f t="shared" si="53"/>
+        <v>656</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <f t="shared" si="35"/>
+        <v>891</v>
+      </c>
+      <c r="B57" s="3">
+        <f t="shared" si="35"/>
+        <v>836</v>
+      </c>
+      <c r="C57" s="3">
+        <f t="shared" si="35"/>
+        <v>783</v>
+      </c>
+      <c r="D57" s="3">
+        <f t="shared" si="35"/>
+        <v>745</v>
+      </c>
+      <c r="E57" s="3">
+        <f t="shared" si="35"/>
+        <v>743</v>
+      </c>
+      <c r="F57" s="3">
+        <f t="shared" si="35"/>
+        <v>685</v>
+      </c>
+      <c r="G57" s="3">
+        <f t="shared" si="35"/>
+        <v>592</v>
+      </c>
+      <c r="H57" s="3">
+        <f t="shared" si="35"/>
+        <v>550</v>
+      </c>
+      <c r="I57" s="3">
+        <f t="shared" si="35"/>
+        <v>528</v>
+      </c>
+      <c r="J57" s="3">
+        <f t="shared" si="35"/>
+        <v>465</v>
+      </c>
+      <c r="K57" s="3">
+        <f t="shared" si="35"/>
+        <v>460</v>
+      </c>
+      <c r="L57" s="3">
+        <f t="shared" si="35"/>
+        <v>442</v>
+      </c>
+      <c r="M57" s="3">
+        <f t="shared" si="35"/>
+        <v>408</v>
+      </c>
+      <c r="N57" s="3">
+        <f t="shared" si="35"/>
+        <v>360</v>
+      </c>
+      <c r="O57" s="3">
+        <f t="shared" si="37"/>
+        <v>304</v>
+      </c>
+      <c r="P57" s="3">
+        <f t="shared" si="38"/>
+        <v>217</v>
+      </c>
+      <c r="Q57" s="3">
+        <f t="shared" si="39"/>
+        <v>259</v>
+      </c>
+      <c r="R57" s="3">
+        <f t="shared" si="40"/>
+        <v>302</v>
+      </c>
+      <c r="S57" s="3">
+        <f t="shared" si="41"/>
+        <v>338</v>
+      </c>
+      <c r="T57" s="3">
+        <f t="shared" si="42"/>
+        <v>382</v>
+      </c>
+      <c r="U57" s="3">
+        <f t="shared" si="43"/>
+        <v>420</v>
+      </c>
+      <c r="V57" s="3">
+        <f t="shared" si="44"/>
+        <v>432</v>
+      </c>
+      <c r="W57" s="3">
+        <f t="shared" si="45"/>
+        <v>482</v>
+      </c>
+      <c r="X57" s="3">
+        <f t="shared" si="46"/>
+        <v>526</v>
+      </c>
+      <c r="Y57" s="3">
+        <f t="shared" si="47"/>
+        <v>550</v>
+      </c>
+      <c r="Z57" s="3">
+        <f t="shared" si="48"/>
+        <v>557</v>
+      </c>
+      <c r="AA57" s="3">
+        <f t="shared" si="49"/>
+        <v>585</v>
+      </c>
+      <c r="AB57" s="3">
+        <f t="shared" si="50"/>
+        <v>619</v>
+      </c>
+      <c r="AC57" s="3">
+        <f t="shared" si="51"/>
+        <v>669</v>
+      </c>
+      <c r="AD57" s="3">
+        <f t="shared" si="52"/>
+        <v>671</v>
+      </c>
+      <c r="AE57" s="3">
+        <f t="shared" si="53"/>
+        <v>705</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <f t="shared" si="35"/>
+        <v>938</v>
+      </c>
+      <c r="B58" s="3">
+        <f t="shared" si="35"/>
+        <v>837</v>
+      </c>
+      <c r="C58" s="3">
+        <f t="shared" si="35"/>
+        <v>831</v>
+      </c>
+      <c r="D58" s="3">
+        <f t="shared" si="35"/>
+        <v>802</v>
+      </c>
+      <c r="E58" s="3">
+        <f t="shared" si="35"/>
+        <v>783</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" si="35"/>
+        <v>694</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="35"/>
+        <v>615</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="35"/>
+        <v>591</v>
+      </c>
+      <c r="I58" s="3">
+        <f t="shared" si="35"/>
+        <v>552</v>
+      </c>
+      <c r="J58" s="3">
+        <f t="shared" si="35"/>
+        <v>528</v>
+      </c>
+      <c r="K58" s="3">
+        <f t="shared" si="35"/>
+        <v>501</v>
+      </c>
+      <c r="L58" s="3">
+        <f t="shared" si="35"/>
+        <v>454</v>
+      </c>
+      <c r="M58" s="3">
+        <f t="shared" si="35"/>
+        <v>450</v>
+      </c>
+      <c r="N58" s="3">
+        <f t="shared" si="35"/>
+        <v>405</v>
+      </c>
+      <c r="O58" s="3">
+        <f t="shared" si="37"/>
+        <v>305</v>
+      </c>
+      <c r="P58" s="3">
+        <f t="shared" si="38"/>
+        <v>246</v>
+      </c>
+      <c r="Q58" s="3">
+        <f t="shared" si="39"/>
+        <v>289</v>
+      </c>
+      <c r="R58" s="3">
+        <f t="shared" si="40"/>
+        <v>334</v>
+      </c>
+      <c r="S58" s="3">
+        <f t="shared" si="41"/>
+        <v>341</v>
+      </c>
+      <c r="T58" s="3">
+        <f t="shared" si="42"/>
+        <v>395</v>
+      </c>
+      <c r="U58" s="3">
+        <f t="shared" si="43"/>
+        <v>465</v>
+      </c>
+      <c r="V58" s="3">
+        <f t="shared" si="44"/>
+        <v>508</v>
+      </c>
+      <c r="W58" s="3">
+        <f t="shared" si="45"/>
+        <v>510</v>
+      </c>
+      <c r="X58" s="3">
+        <f t="shared" si="46"/>
+        <v>541</v>
+      </c>
+      <c r="Y58" s="3">
+        <f t="shared" si="47"/>
+        <v>600</v>
+      </c>
+      <c r="Z58" s="3">
+        <f t="shared" si="48"/>
+        <v>626</v>
+      </c>
+      <c r="AA58" s="3">
+        <f t="shared" si="49"/>
+        <v>660</v>
+      </c>
+      <c r="AB58" s="3">
+        <f t="shared" si="50"/>
+        <v>668</v>
+      </c>
+      <c r="AC58" s="3">
+        <f t="shared" si="51"/>
+        <v>695</v>
+      </c>
+      <c r="AD58" s="3">
+        <f t="shared" si="52"/>
+        <v>720</v>
+      </c>
+      <c r="AE58" s="3">
+        <f t="shared" si="53"/>
+        <v>764</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <f t="shared" si="35"/>
+        <v>940</v>
+      </c>
+      <c r="B59" s="3">
+        <f t="shared" si="35"/>
+        <v>888</v>
+      </c>
+      <c r="C59" s="3">
+        <f t="shared" si="35"/>
+        <v>879</v>
+      </c>
+      <c r="D59" s="3">
+        <f t="shared" si="35"/>
+        <v>848</v>
+      </c>
+      <c r="E59" s="3">
+        <f t="shared" si="35"/>
+        <v>816</v>
+      </c>
+      <c r="F59" s="3">
+        <f t="shared" si="35"/>
+        <v>703</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" si="35"/>
+        <v>632</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" si="35"/>
+        <v>616</v>
+      </c>
+      <c r="I59" s="3">
+        <f t="shared" si="35"/>
+        <v>581</v>
+      </c>
+      <c r="J59" s="3">
+        <f t="shared" si="35"/>
+        <v>550</v>
+      </c>
+      <c r="K59" s="3">
+        <f t="shared" si="35"/>
+        <v>531</v>
+      </c>
+      <c r="L59" s="3">
+        <f t="shared" si="35"/>
+        <v>519</v>
+      </c>
+      <c r="M59" s="3">
+        <f t="shared" si="35"/>
+        <v>472</v>
+      </c>
+      <c r="N59" s="3">
+        <f t="shared" si="35"/>
+        <v>447</v>
+      </c>
+      <c r="O59" s="3">
+        <f t="shared" si="37"/>
+        <v>351</v>
+      </c>
+      <c r="P59" s="3">
+        <f t="shared" si="38"/>
+        <v>278</v>
+      </c>
+      <c r="Q59" s="3">
+        <f t="shared" si="39"/>
+        <v>336</v>
+      </c>
+      <c r="R59" s="3">
+        <f t="shared" si="40"/>
+        <v>360</v>
+      </c>
+      <c r="S59" s="3">
+        <f t="shared" si="41"/>
+        <v>373</v>
+      </c>
+      <c r="T59" s="3">
+        <f t="shared" si="42"/>
+        <v>439</v>
+      </c>
+      <c r="U59" s="3">
+        <f t="shared" si="43"/>
+        <v>501</v>
+      </c>
+      <c r="V59" s="3">
+        <f t="shared" si="44"/>
+        <v>513</v>
+      </c>
+      <c r="W59" s="3">
+        <f t="shared" si="45"/>
+        <v>523</v>
+      </c>
+      <c r="X59" s="3">
+        <f t="shared" si="46"/>
+        <v>586</v>
+      </c>
+      <c r="Y59" s="3">
+        <f t="shared" si="47"/>
+        <v>610</v>
+      </c>
+      <c r="Z59" s="3">
+        <f t="shared" si="48"/>
+        <v>659</v>
+      </c>
+      <c r="AA59" s="3">
+        <f t="shared" si="49"/>
+        <v>669</v>
+      </c>
+      <c r="AB59" s="3">
+        <f t="shared" si="50"/>
+        <v>716</v>
+      </c>
+      <c r="AC59" s="3">
+        <f t="shared" si="51"/>
+        <v>723</v>
+      </c>
+      <c r="AD59" s="3">
+        <f t="shared" si="52"/>
+        <v>765</v>
+      </c>
+      <c r="AE59" s="3">
+        <f t="shared" si="53"/>
+        <v>801</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <f t="shared" si="35"/>
+        <v>984</v>
+      </c>
+      <c r="B60" s="3">
+        <f t="shared" si="35"/>
+        <v>970</v>
+      </c>
+      <c r="C60" s="3">
+        <f t="shared" si="35"/>
+        <v>931</v>
+      </c>
+      <c r="D60" s="3">
+        <f t="shared" si="35"/>
+        <v>909</v>
+      </c>
+      <c r="E60" s="3">
+        <f t="shared" si="35"/>
+        <v>862</v>
+      </c>
+      <c r="F60" s="3">
+        <f t="shared" si="35"/>
+        <v>750</v>
+      </c>
+      <c r="G60" s="3">
+        <f t="shared" si="35"/>
+        <v>657</v>
+      </c>
+      <c r="H60" s="3">
+        <f t="shared" si="35"/>
+        <v>629</v>
+      </c>
+      <c r="I60" s="3">
+        <f t="shared" si="35"/>
+        <v>619</v>
+      </c>
+      <c r="J60" s="3">
+        <f t="shared" si="35"/>
+        <v>596</v>
+      </c>
+      <c r="K60" s="3">
+        <f t="shared" si="35"/>
+        <v>535</v>
+      </c>
+      <c r="L60" s="3">
+        <f t="shared" si="35"/>
+        <v>521</v>
+      </c>
+      <c r="M60" s="3">
+        <f t="shared" si="35"/>
+        <v>507</v>
+      </c>
+      <c r="N60" s="3">
+        <f t="shared" si="35"/>
+        <v>479</v>
+      </c>
+      <c r="O60" s="3">
+        <f t="shared" si="37"/>
+        <v>387</v>
+      </c>
+      <c r="P60" s="3">
+        <f t="shared" si="38"/>
+        <v>287</v>
+      </c>
+      <c r="Q60" s="3">
+        <f t="shared" si="39"/>
+        <v>364</v>
+      </c>
+      <c r="R60" s="3">
+        <f t="shared" si="40"/>
+        <v>414</v>
+      </c>
+      <c r="S60" s="3">
+        <f t="shared" si="41"/>
+        <v>448</v>
+      </c>
+      <c r="T60" s="3">
+        <f t="shared" si="42"/>
+        <v>477</v>
+      </c>
+      <c r="U60" s="3">
+        <f t="shared" si="43"/>
+        <v>514</v>
+      </c>
+      <c r="V60" s="3">
+        <f t="shared" si="44"/>
+        <v>548</v>
+      </c>
+      <c r="W60" s="3">
+        <f t="shared" si="45"/>
+        <v>592</v>
+      </c>
+      <c r="X60" s="3">
+        <f t="shared" si="46"/>
+        <v>613</v>
+      </c>
+      <c r="Y60" s="3">
+        <f t="shared" si="47"/>
+        <v>623</v>
+      </c>
+      <c r="Z60" s="3">
+        <f t="shared" si="48"/>
+        <v>697</v>
+      </c>
+      <c r="AA60" s="3">
+        <f t="shared" si="49"/>
+        <v>706</v>
+      </c>
+      <c r="AB60" s="3">
+        <f t="shared" si="50"/>
+        <v>761</v>
+      </c>
+      <c r="AC60" s="3">
+        <f t="shared" si="51"/>
+        <v>807</v>
+      </c>
+      <c r="AD60" s="3">
+        <f t="shared" si="52"/>
+        <v>838</v>
+      </c>
+      <c r="AE60" s="3">
+        <f t="shared" si="53"/>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="35"/>
+        <v>1044</v>
+      </c>
+      <c r="B61" s="3">
+        <f t="shared" si="35"/>
+        <v>1004</v>
+      </c>
+      <c r="C61" s="3">
+        <f t="shared" si="35"/>
+        <v>942</v>
+      </c>
+      <c r="D61" s="3">
+        <f t="shared" si="35"/>
+        <v>915</v>
+      </c>
+      <c r="E61" s="3">
+        <f t="shared" si="35"/>
+        <v>881</v>
+      </c>
+      <c r="F61" s="3">
+        <f t="shared" si="35"/>
+        <v>784</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" si="35"/>
+        <v>707</v>
+      </c>
+      <c r="H61" s="3">
+        <f t="shared" si="35"/>
+        <v>656</v>
+      </c>
+      <c r="I61" s="3">
+        <f t="shared" si="35"/>
+        <v>645</v>
+      </c>
+      <c r="J61" s="3">
+        <f t="shared" si="35"/>
+        <v>635</v>
+      </c>
+      <c r="K61" s="3">
+        <f t="shared" si="35"/>
+        <v>582</v>
+      </c>
+      <c r="L61" s="3">
+        <f t="shared" si="35"/>
+        <v>543</v>
+      </c>
+      <c r="M61" s="3">
+        <f t="shared" si="35"/>
+        <v>535</v>
+      </c>
+      <c r="N61" s="3">
+        <f t="shared" si="35"/>
+        <v>515</v>
+      </c>
+      <c r="O61" s="3">
+        <f t="shared" si="37"/>
+        <v>427</v>
+      </c>
+      <c r="P61" s="3">
+        <f t="shared" si="38"/>
+        <v>310</v>
+      </c>
+      <c r="Q61" s="3">
+        <f t="shared" si="39"/>
+        <v>412</v>
+      </c>
+      <c r="R61" s="3">
+        <f t="shared" si="40"/>
+        <v>430</v>
+      </c>
+      <c r="S61" s="3">
+        <f t="shared" si="41"/>
+        <v>464</v>
+      </c>
+      <c r="T61" s="3">
+        <f t="shared" si="42"/>
+        <v>493</v>
+      </c>
+      <c r="U61" s="3">
+        <f t="shared" si="43"/>
+        <v>544</v>
+      </c>
+      <c r="V61" s="3">
+        <f t="shared" si="44"/>
+        <v>587</v>
+      </c>
+      <c r="W61" s="3">
+        <f t="shared" si="45"/>
+        <v>635</v>
+      </c>
+      <c r="X61" s="3">
+        <f t="shared" si="46"/>
+        <v>672</v>
+      </c>
+      <c r="Y61" s="3">
+        <f t="shared" si="47"/>
+        <v>684</v>
+      </c>
+      <c r="Z61" s="3">
+        <f t="shared" si="48"/>
+        <v>731</v>
+      </c>
+      <c r="AA61" s="3">
+        <f t="shared" si="49"/>
+        <v>739</v>
+      </c>
+      <c r="AB61" s="3">
+        <f t="shared" si="50"/>
+        <v>768</v>
+      </c>
+      <c r="AC61" s="3">
+        <f t="shared" si="51"/>
+        <v>840</v>
+      </c>
+      <c r="AD61" s="3">
+        <f t="shared" si="52"/>
+        <v>890</v>
+      </c>
+      <c r="AE61" s="3">
+        <f t="shared" si="53"/>
+        <v>914</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <f t="shared" si="35"/>
+        <v>1071</v>
+      </c>
+      <c r="B62" s="3">
+        <f t="shared" si="35"/>
+        <v>1012</v>
+      </c>
+      <c r="C62" s="3">
+        <f t="shared" si="35"/>
+        <v>960</v>
+      </c>
+      <c r="D62" s="3">
+        <f t="shared" si="35"/>
+        <v>944</v>
+      </c>
+      <c r="E62" s="3">
+        <f t="shared" si="35"/>
+        <v>910</v>
+      </c>
+      <c r="F62" s="3">
+        <f t="shared" si="35"/>
+        <v>809</v>
+      </c>
+      <c r="G62" s="3">
+        <f t="shared" si="35"/>
+        <v>730</v>
+      </c>
+      <c r="H62" s="3">
+        <f t="shared" si="35"/>
+        <v>666</v>
+      </c>
+      <c r="I62" s="3">
+        <f t="shared" si="35"/>
+        <v>655</v>
+      </c>
+      <c r="J62" s="3">
+        <f t="shared" si="35"/>
+        <v>647</v>
+      </c>
+      <c r="K62" s="3">
+        <f t="shared" si="35"/>
+        <v>641</v>
+      </c>
+      <c r="L62" s="3">
+        <f t="shared" si="35"/>
+        <v>598</v>
+      </c>
+      <c r="M62" s="3">
+        <f t="shared" si="35"/>
+        <v>577</v>
+      </c>
+      <c r="N62" s="3">
+        <f t="shared" si="35"/>
+        <v>550</v>
+      </c>
+      <c r="O62" s="3">
+        <f t="shared" si="37"/>
+        <v>458</v>
+      </c>
+      <c r="P62" s="3">
+        <f t="shared" si="38"/>
+        <v>355</v>
+      </c>
+      <c r="Q62" s="3">
+        <f t="shared" si="39"/>
+        <v>450</v>
+      </c>
+      <c r="R62" s="3">
+        <f t="shared" si="40"/>
+        <v>478</v>
+      </c>
+      <c r="S62" s="3">
+        <f t="shared" si="41"/>
+        <v>524</v>
+      </c>
+      <c r="T62" s="3">
+        <f t="shared" si="42"/>
+        <v>534</v>
+      </c>
+      <c r="U62" s="3">
+        <f t="shared" si="43"/>
+        <v>573</v>
+      </c>
+      <c r="V62" s="3">
+        <f t="shared" si="44"/>
+        <v>626</v>
+      </c>
+      <c r="W62" s="3">
+        <f t="shared" si="45"/>
+        <v>644</v>
+      </c>
+      <c r="X62" s="3">
+        <f t="shared" si="46"/>
+        <v>694</v>
+      </c>
+      <c r="Y62" s="3">
+        <f t="shared" si="47"/>
+        <v>711</v>
+      </c>
+      <c r="Z62" s="3">
+        <f t="shared" si="48"/>
+        <v>781</v>
+      </c>
+      <c r="AA62" s="3">
+        <f t="shared" si="49"/>
+        <v>824</v>
+      </c>
+      <c r="AB62" s="3">
+        <f t="shared" si="50"/>
+        <v>871</v>
+      </c>
+      <c r="AC62" s="3">
+        <f t="shared" si="51"/>
+        <v>910</v>
+      </c>
+      <c r="AD62" s="3">
+        <f t="shared" si="52"/>
+        <v>954</v>
+      </c>
+      <c r="AE62" s="3">
+        <f t="shared" si="53"/>
+        <v>988</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <f t="shared" si="35"/>
+        <v>1074</v>
+      </c>
+      <c r="B63" s="3">
+        <f t="shared" si="35"/>
+        <v>1024</v>
+      </c>
+      <c r="C63" s="3">
+        <f t="shared" si="35"/>
+        <v>967</v>
+      </c>
+      <c r="D63" s="3">
+        <f t="shared" si="35"/>
+        <v>955</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" si="35"/>
+        <v>936</v>
+      </c>
+      <c r="F63" s="3">
+        <f t="shared" si="35"/>
+        <v>821</v>
+      </c>
+      <c r="G63" s="3">
+        <f t="shared" si="35"/>
+        <v>775</v>
+      </c>
+      <c r="H63" s="3">
+        <f t="shared" si="35"/>
+        <v>763</v>
+      </c>
+      <c r="I63" s="3">
+        <f t="shared" si="35"/>
+        <v>757</v>
+      </c>
+      <c r="J63" s="3">
+        <f t="shared" si="35"/>
+        <v>729</v>
+      </c>
+      <c r="K63" s="3">
+        <f t="shared" si="35"/>
+        <v>689</v>
+      </c>
+      <c r="L63" s="3">
+        <f t="shared" si="35"/>
+        <v>660</v>
+      </c>
+      <c r="M63" s="3">
+        <f t="shared" si="35"/>
+        <v>613</v>
+      </c>
+      <c r="N63" s="3">
+        <f t="shared" si="35"/>
+        <v>565</v>
+      </c>
+      <c r="O63" s="3">
+        <f t="shared" si="37"/>
+        <v>490</v>
+      </c>
+      <c r="P63" s="3">
+        <f t="shared" si="38"/>
+        <v>369</v>
+      </c>
+      <c r="Q63" s="3">
+        <f t="shared" si="39"/>
+        <v>494</v>
+      </c>
+      <c r="R63" s="3">
+        <f t="shared" si="40"/>
+        <v>511</v>
+      </c>
+      <c r="S63" s="3">
+        <f t="shared" si="41"/>
+        <v>561</v>
+      </c>
+      <c r="T63" s="3">
+        <f t="shared" si="42"/>
+        <v>605</v>
+      </c>
+      <c r="U63" s="3">
+        <f t="shared" si="43"/>
+        <v>610</v>
+      </c>
+      <c r="V63" s="3">
+        <f t="shared" si="44"/>
+        <v>666</v>
+      </c>
+      <c r="W63" s="3">
+        <f t="shared" si="45"/>
+        <v>699</v>
+      </c>
+      <c r="X63" s="3">
+        <f t="shared" si="46"/>
+        <v>735</v>
+      </c>
+      <c r="Y63" s="3">
+        <f t="shared" si="47"/>
+        <v>742</v>
+      </c>
+      <c r="Z63" s="3">
+        <f t="shared" si="48"/>
+        <v>804</v>
+      </c>
+      <c r="AA63" s="3">
+        <f t="shared" si="49"/>
+        <v>828</v>
+      </c>
+      <c r="AB63" s="3">
+        <f t="shared" si="50"/>
+        <v>920</v>
+      </c>
+      <c r="AC63" s="3">
+        <f t="shared" si="51"/>
+        <v>960</v>
+      </c>
+      <c r="AD63" s="3">
+        <f t="shared" si="52"/>
+        <v>992</v>
+      </c>
+      <c r="AE63" s="3">
+        <f t="shared" si="53"/>
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <f t="shared" si="35"/>
+        <v>1100</v>
+      </c>
+      <c r="B64" s="3">
+        <f t="shared" si="35"/>
+        <v>1060</v>
+      </c>
+      <c r="C64" s="3">
+        <f t="shared" si="35"/>
+        <v>1031</v>
+      </c>
+      <c r="D64" s="3">
+        <f t="shared" si="35"/>
+        <v>1001</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" si="35"/>
+        <v>957</v>
+      </c>
+      <c r="F64" s="3">
+        <f t="shared" si="35"/>
+        <v>832</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" si="35"/>
+        <v>795</v>
+      </c>
+      <c r="H64" s="3">
+        <f t="shared" si="35"/>
+        <v>787</v>
+      </c>
+      <c r="I64" s="3">
+        <f t="shared" si="35"/>
+        <v>768</v>
+      </c>
+      <c r="J64" s="3">
+        <f t="shared" si="35"/>
+        <v>740</v>
+      </c>
+      <c r="K64" s="3">
+        <f t="shared" si="35"/>
+        <v>717</v>
+      </c>
+      <c r="L64" s="3">
+        <f t="shared" si="35"/>
+        <v>702</v>
+      </c>
+      <c r="M64" s="3">
+        <f t="shared" si="35"/>
+        <v>648</v>
+      </c>
+      <c r="N64" s="3">
+        <f t="shared" si="35"/>
+        <v>584</v>
+      </c>
+      <c r="O64" s="3">
+        <f t="shared" si="37"/>
+        <v>532</v>
+      </c>
+      <c r="P64" s="3">
+        <f t="shared" si="38"/>
+        <v>401</v>
+      </c>
+      <c r="Q64" s="3">
+        <f t="shared" si="39"/>
+        <v>508</v>
+      </c>
+      <c r="R64" s="3">
+        <f t="shared" si="40"/>
+        <v>536</v>
+      </c>
+      <c r="S64" s="3">
+        <f t="shared" si="41"/>
+        <v>594</v>
+      </c>
+      <c r="T64" s="3">
+        <f t="shared" si="42"/>
+        <v>649</v>
+      </c>
+      <c r="U64" s="3">
+        <f t="shared" si="43"/>
+        <v>699</v>
+      </c>
+      <c r="V64" s="3">
+        <f t="shared" si="44"/>
+        <v>740</v>
+      </c>
+      <c r="W64" s="3">
+        <f t="shared" si="45"/>
+        <v>753</v>
+      </c>
+      <c r="X64" s="3">
+        <f t="shared" si="46"/>
+        <v>758</v>
+      </c>
+      <c r="Y64" s="3">
+        <f t="shared" si="47"/>
+        <v>808</v>
+      </c>
+      <c r="Z64" s="3">
+        <f t="shared" si="48"/>
+        <v>811</v>
+      </c>
+      <c r="AA64" s="3">
+        <f t="shared" si="49"/>
+        <v>862</v>
+      </c>
+      <c r="AB64" s="3">
+        <f t="shared" si="50"/>
+        <v>951</v>
+      </c>
+      <c r="AC64" s="3">
+        <f t="shared" si="51"/>
+        <v>974</v>
+      </c>
+      <c r="AD64" s="3">
+        <f t="shared" si="52"/>
+        <v>997</v>
+      </c>
+      <c r="AE64" s="3">
+        <f t="shared" si="53"/>
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <f t="shared" si="35"/>
+        <v>1134</v>
+      </c>
+      <c r="B65" s="3">
+        <f t="shared" si="35"/>
+        <v>1092</v>
+      </c>
+      <c r="C65" s="3">
+        <f t="shared" si="35"/>
+        <v>1062</v>
+      </c>
+      <c r="D65" s="3">
+        <f t="shared" si="35"/>
+        <v>1021</v>
+      </c>
+      <c r="E65" s="3">
+        <f t="shared" si="35"/>
+        <v>976</v>
+      </c>
+      <c r="F65" s="3">
+        <f t="shared" si="35"/>
+        <v>906</v>
+      </c>
+      <c r="G65" s="3">
+        <f t="shared" si="35"/>
+        <v>885</v>
+      </c>
+      <c r="H65" s="3">
+        <f t="shared" si="35"/>
+        <v>837</v>
+      </c>
+      <c r="I65" s="3">
+        <f t="shared" si="35"/>
+        <v>825</v>
+      </c>
+      <c r="J65" s="3">
+        <f t="shared" si="35"/>
+        <v>787</v>
+      </c>
+      <c r="K65" s="3">
+        <f t="shared" si="35"/>
+        <v>750</v>
+      </c>
+      <c r="L65" s="3">
+        <f t="shared" si="35"/>
+        <v>734</v>
+      </c>
+      <c r="M65" s="3">
+        <f t="shared" si="35"/>
+        <v>684</v>
+      </c>
+      <c r="N65" s="3">
+        <f t="shared" si="35"/>
+        <v>611</v>
+      </c>
+      <c r="O65" s="3">
+        <f t="shared" si="37"/>
+        <v>577</v>
+      </c>
+      <c r="P65" s="3">
+        <f t="shared" si="38"/>
+        <v>416</v>
+      </c>
+      <c r="Q65" s="3">
+        <f t="shared" si="39"/>
+        <v>544</v>
+      </c>
+      <c r="R65" s="3">
+        <f t="shared" si="40"/>
+        <v>551</v>
+      </c>
+      <c r="S65" s="3">
+        <f t="shared" si="41"/>
+        <v>644</v>
+      </c>
+      <c r="T65" s="3">
+        <f t="shared" si="42"/>
+        <v>673</v>
+      </c>
+      <c r="U65" s="3">
+        <f t="shared" si="43"/>
+        <v>731</v>
+      </c>
+      <c r="V65" s="3">
+        <f t="shared" si="44"/>
+        <v>744</v>
+      </c>
+      <c r="W65" s="3">
+        <f t="shared" si="45"/>
+        <v>793</v>
+      </c>
+      <c r="X65" s="3">
+        <f t="shared" si="46"/>
+        <v>823</v>
+      </c>
+      <c r="Y65" s="3">
+        <f t="shared" si="47"/>
+        <v>856</v>
+      </c>
+      <c r="Z65" s="3">
+        <f t="shared" si="48"/>
+        <v>868</v>
+      </c>
+      <c r="AA65" s="3">
+        <f t="shared" si="49"/>
+        <v>875</v>
+      </c>
+      <c r="AB65" s="3">
+        <f t="shared" si="50"/>
+        <v>969</v>
+      </c>
+      <c r="AC65" s="3">
+        <f t="shared" si="51"/>
+        <v>1016</v>
+      </c>
+      <c r="AD65" s="3">
+        <f t="shared" si="52"/>
+        <v>1051</v>
+      </c>
+      <c r="AE65" s="3">
+        <f t="shared" si="53"/>
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -4349,7 +7294,7 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
+      <c r="P66" s="2"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
       <c r="S66" s="3"/>
@@ -4366,7 +7311,7 @@
       <c r="AD66" s="3"/>
       <c r="AE66" s="3"/>
     </row>
-    <row r="67" spans="1:31">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -4382,7 +7327,7 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
+      <c r="P67" s="2"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
@@ -4399,7 +7344,7 @@
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
     </row>
-    <row r="68" spans="1:31">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -4415,7 +7360,7 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
+      <c r="P68" s="2"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
       <c r="S68" s="3"/>
@@ -4432,7 +7377,7 @@
       <c r="AD68" s="3"/>
       <c r="AE68" s="3"/>
     </row>
-    <row r="69" spans="1:31">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -4448,7 +7393,7 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
+      <c r="P69" s="2"/>
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
@@ -4465,30 +7410,101 @@
       <c r="AD69" s="3"/>
       <c r="AE69" s="3"/>
     </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="3"/>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="3"/>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="P72" s="2"/>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="P73" s="2"/>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="P74" s="2"/>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="P75" s="2"/>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="P76" s="2"/>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="P77" s="2"/>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="P78" s="2"/>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="P79" s="2"/>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P81" s="2"/>
+    </row>
+    <row r="82" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P82" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
